--- a/Project 3 Prototype/Revenue data/state_revenues.xlsx
+++ b/Project 3 Prototype/Revenue data/state_revenues.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8af7e8536f9e44ec/Desktop/Project 3 Data/Revenue data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8af7e8536f9e44ec/Desktop/Data Bootcamp/Project-3-Sports-Betting-Analysis/Project 3 Prototype/Revenue data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="8_{E6E10965-EBB7-4F40-8F42-81E4F3DD3217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C23E19EB-B0FA-47CF-B568-0EFCBF50FB11}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="8_{E6E10965-EBB7-4F40-8F42-81E4F3DD3217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7A7F052-8C47-4DDC-BB68-E907E0F50D79}"/>
   <bookViews>
     <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A1DC3F23-743D-44A6-8CED-D49147BA2802}"/>
   </bookViews>
@@ -1471,13 +1471,9 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_2" connectionId="30" xr16:uid="{CEA1D2CC-D9A1-4B7E-80CF-F084E80649DB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="7">
+  <queryTableRefresh nextId="8">
     <queryTableFields count="6">
       <queryTableField id="1" name="Month" tableColumnId="1"/>
       <queryTableField id="2" name="Handle" tableColumnId="2"/>
@@ -2043,13 +2039,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C4C3CFC6-1F9F-4F34-B855-8F84A82F3133}" name="Query1" displayName="Query1" ref="A1:F1099" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F1099" xr:uid="{C4C3CFC6-1F9F-4F34-B855-8F84A82F3133}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="DC"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F1099" xr:uid="{C4C3CFC6-1F9F-4F34-B855-8F84A82F3133}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{8DD4FFBC-A385-48D1-92E0-42708E98C9D0}" uniqueName="1" name="Month" queryTableFieldId="1" dataDxfId="35"/>
     <tableColumn id="2" xr3:uid="{182777B6-B5E7-4EBD-80E7-8CF29F4C7122}" uniqueName="2" name="Handle" queryTableFieldId="2"/>
@@ -2767,8 +2757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865AAE7E-C9B5-49A1-AD2D-52DA24198DC1}">
   <dimension ref="A1:F1099"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
-      <selection activeCell="I215" sqref="I215"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2801,7 +2791,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>44440</v>
       </c>
@@ -2821,7 +2811,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>44470</v>
       </c>
@@ -2841,7 +2831,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>44501</v>
       </c>
@@ -2861,7 +2851,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>44531</v>
       </c>
@@ -2881,7 +2871,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>44562</v>
       </c>
@@ -2901,7 +2891,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>44593</v>
       </c>
@@ -2921,7 +2911,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>44621</v>
       </c>
@@ -2941,7 +2931,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>44652</v>
       </c>
@@ -2961,7 +2951,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>44682</v>
       </c>
@@ -2981,7 +2971,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>44713</v>
       </c>
@@ -3001,7 +2991,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>44743</v>
       </c>
@@ -3021,7 +3011,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>44774</v>
       </c>
@@ -3041,7 +3031,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>44805</v>
       </c>
@@ -3061,7 +3051,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>44835</v>
       </c>
@@ -3081,7 +3071,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>44866</v>
       </c>
@@ -3101,7 +3091,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>44896</v>
       </c>
@@ -3121,7 +3111,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>44927</v>
       </c>
@@ -3141,7 +3131,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>44958</v>
       </c>
@@ -3161,7 +3151,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>44986</v>
       </c>
@@ -3181,7 +3171,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>45017</v>
       </c>
@@ -3201,7 +3191,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>45047</v>
       </c>
@@ -3221,7 +3211,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>43647</v>
       </c>
@@ -3241,7 +3231,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>43678</v>
       </c>
@@ -3261,7 +3251,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>43709</v>
       </c>
@@ -3281,7 +3271,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>43739</v>
       </c>
@@ -3301,7 +3291,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>43770</v>
       </c>
@@ -3321,7 +3311,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>43800</v>
       </c>
@@ -3341,7 +3331,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>43831</v>
       </c>
@@ -3361,7 +3351,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>43862</v>
       </c>
@@ -3381,7 +3371,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>43891</v>
       </c>
@@ -3401,7 +3391,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>43922</v>
       </c>
@@ -3418,7 +3408,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>43952</v>
       </c>
@@ -3438,7 +3428,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>43983</v>
       </c>
@@ -3458,7 +3448,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>44013</v>
       </c>
@@ -3478,7 +3468,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>44044</v>
       </c>
@@ -3498,7 +3488,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>44075</v>
       </c>
@@ -3518,7 +3508,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>44105</v>
       </c>
@@ -3538,7 +3528,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>44136</v>
       </c>
@@ -3558,7 +3548,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>44166</v>
       </c>
@@ -3578,7 +3568,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>44197</v>
       </c>
@@ -3598,7 +3588,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>44228</v>
       </c>
@@ -3618,7 +3608,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>44256</v>
       </c>
@@ -3638,7 +3628,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>44287</v>
       </c>
@@ -3658,7 +3648,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>44317</v>
       </c>
@@ -3678,7 +3668,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>44348</v>
       </c>
@@ -3698,7 +3688,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>44378</v>
       </c>
@@ -3718,7 +3708,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>44409</v>
       </c>
@@ -3738,7 +3728,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>44440</v>
       </c>
@@ -3758,7 +3748,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>44470</v>
       </c>
@@ -3778,7 +3768,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
         <v>44501</v>
       </c>
@@ -3798,7 +3788,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>44531</v>
       </c>
@@ -3818,7 +3808,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>44562</v>
       </c>
@@ -3838,7 +3828,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>44593</v>
       </c>
@@ -3858,7 +3848,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>44621</v>
       </c>
@@ -3878,7 +3868,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>44652</v>
       </c>
@@ -3898,7 +3888,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>44682</v>
       </c>
@@ -3918,7 +3908,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
         <v>44713</v>
       </c>
@@ -3938,7 +3928,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
         <v>44743</v>
       </c>
@@ -3958,7 +3948,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
         <v>44774</v>
       </c>
@@ -3978,7 +3968,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
         <v>44805</v>
       </c>
@@ -3998,7 +3988,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
         <v>44835</v>
       </c>
@@ -4018,7 +4008,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
         <v>44866</v>
       </c>
@@ -4038,7 +4028,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
         <v>44896</v>
       </c>
@@ -4058,7 +4048,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
         <v>44927</v>
       </c>
@@ -4078,7 +4068,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A66" s="1">
         <v>44958</v>
       </c>
@@ -4098,7 +4088,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A67" s="1">
         <v>44986</v>
       </c>
@@ -4118,7 +4108,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A68" s="1">
         <v>45017</v>
       </c>
@@ -4138,7 +4128,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A69" s="1">
         <v>45047</v>
       </c>
@@ -4158,7 +4148,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
         <v>45078</v>
       </c>
@@ -4178,7 +4168,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A71" s="1">
         <v>43952</v>
       </c>
@@ -4198,7 +4188,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A72" s="1">
         <v>43983</v>
       </c>
@@ -4218,7 +4208,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A73" s="1">
         <v>44013</v>
       </c>
@@ -4238,7 +4228,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A74" s="1">
         <v>44044</v>
       </c>
@@ -4258,7 +4248,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A75" s="1">
         <v>44075</v>
       </c>
@@ -4278,7 +4268,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A76" s="1">
         <v>44105</v>
       </c>
@@ -4298,7 +4288,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A77" s="1">
         <v>44136</v>
       </c>
@@ -4318,7 +4308,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A78" s="1">
         <v>44166</v>
       </c>
@@ -4338,7 +4328,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A79" s="1">
         <v>44197</v>
       </c>
@@ -4358,7 +4348,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A80" s="1">
         <v>44228</v>
       </c>
@@ -4378,7 +4368,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A81" s="1">
         <v>44256</v>
       </c>
@@ -4398,7 +4388,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A82" s="1">
         <v>44287</v>
       </c>
@@ -4418,7 +4408,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A83" s="1">
         <v>44317</v>
       </c>
@@ -4438,7 +4428,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A84" s="1">
         <v>44348</v>
       </c>
@@ -4458,7 +4448,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A85" s="1">
         <v>44378</v>
       </c>
@@ -4478,7 +4468,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A86" s="1">
         <v>44409</v>
       </c>
@@ -4498,7 +4488,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A87" s="1">
         <v>44440</v>
       </c>
@@ -4518,7 +4508,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A88" s="1">
         <v>44470</v>
       </c>
@@ -4538,7 +4528,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A89" s="1">
         <v>44501</v>
       </c>
@@ -4558,7 +4548,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A90" s="1">
         <v>44531</v>
       </c>
@@ -4578,7 +4568,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A91" s="1">
         <v>44562</v>
       </c>
@@ -4598,7 +4588,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A92" s="1">
         <v>44593</v>
       </c>
@@ -4618,7 +4608,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A93" s="1">
         <v>44621</v>
       </c>
@@ -4638,7 +4628,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A94" s="1">
         <v>44652</v>
       </c>
@@ -4658,7 +4648,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A95" s="1">
         <v>44682</v>
       </c>
@@ -4678,7 +4668,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A96" s="1">
         <v>44713</v>
       </c>
@@ -4698,7 +4688,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A97" s="1">
         <v>44743</v>
       </c>
@@ -4718,7 +4708,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A98" s="1">
         <v>44774</v>
       </c>
@@ -4738,7 +4728,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A99" s="1">
         <v>44805</v>
       </c>
@@ -4758,7 +4748,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A100" s="1">
         <v>44835</v>
       </c>
@@ -4778,7 +4768,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A101" s="1">
         <v>44866</v>
       </c>
@@ -4798,7 +4788,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A102" s="1">
         <v>44896</v>
       </c>
@@ -4818,7 +4808,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A103" s="1">
         <v>44927</v>
       </c>
@@ -4838,7 +4828,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A104" s="1">
         <v>44958</v>
       </c>
@@ -4858,7 +4848,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A105" s="1">
         <v>44986</v>
       </c>
@@ -4878,7 +4868,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A106" s="1">
         <v>45017</v>
       </c>
@@ -4898,7 +4888,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A107" s="1">
         <v>45047</v>
       </c>
@@ -4918,7 +4908,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A108" s="1">
         <v>45078</v>
       </c>
@@ -4938,7 +4928,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A109" s="1">
         <v>44470</v>
       </c>
@@ -4958,7 +4948,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A110" s="1">
         <v>44501</v>
       </c>
@@ -4978,7 +4968,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A111" s="1">
         <v>44531</v>
       </c>
@@ -4998,7 +4988,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A112" s="1">
         <v>44562</v>
       </c>
@@ -5018,7 +5008,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A113" s="1">
         <v>44593</v>
       </c>
@@ -5038,7 +5028,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A114" s="1">
         <v>44621</v>
       </c>
@@ -5058,7 +5048,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A115" s="1">
         <v>44652</v>
       </c>
@@ -5078,7 +5068,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A116" s="1">
         <v>44682</v>
       </c>
@@ -5098,7 +5088,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A117" s="1">
         <v>44713</v>
       </c>
@@ -5118,7 +5108,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A118" s="1">
         <v>44743</v>
       </c>
@@ -5138,7 +5128,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A119" s="1">
         <v>44774</v>
       </c>
@@ -5158,7 +5148,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A120" s="1">
         <v>44805</v>
       </c>
@@ -5178,7 +5168,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A121" s="1">
         <v>44835</v>
       </c>
@@ -5198,7 +5188,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A122" s="1">
         <v>44866</v>
       </c>
@@ -5218,7 +5208,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A123" s="1">
         <v>44896</v>
       </c>
@@ -5238,7 +5228,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A124" s="1">
         <v>44927</v>
       </c>
@@ -5258,7 +5248,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A125" s="1">
         <v>44958</v>
       </c>
@@ -5278,7 +5268,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A126" s="1">
         <v>44986</v>
       </c>
@@ -5298,7 +5288,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A127" s="1">
         <v>45017</v>
       </c>
@@ -5318,7 +5308,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A128" s="1">
         <v>45047</v>
       </c>
@@ -5338,7 +5328,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A129" s="1">
         <v>45078</v>
       </c>
@@ -5358,7 +5348,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A130" s="1">
         <v>43252</v>
       </c>
@@ -5378,7 +5368,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A131" s="1">
         <v>43282</v>
       </c>
@@ -5398,7 +5388,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A132" s="1">
         <v>43313</v>
       </c>
@@ -5418,7 +5408,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A133" s="1">
         <v>43344</v>
       </c>
@@ -5438,7 +5428,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A134" s="1">
         <v>43374</v>
       </c>
@@ -5458,7 +5448,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A135" s="1">
         <v>43405</v>
       </c>
@@ -5478,7 +5468,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A136" s="1">
         <v>43435</v>
       </c>
@@ -5498,7 +5488,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A137" s="1">
         <v>43466</v>
       </c>
@@ -5518,7 +5508,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A138" s="1">
         <v>43497</v>
       </c>
@@ -5538,7 +5528,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A139" s="1">
         <v>43525</v>
       </c>
@@ -5558,7 +5548,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A140" s="1">
         <v>43556</v>
       </c>
@@ -5578,7 +5568,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A141" s="1">
         <v>43586</v>
       </c>
@@ -5598,7 +5588,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A142" s="1">
         <v>43617</v>
       </c>
@@ -5618,7 +5608,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A143" s="1">
         <v>43647</v>
       </c>
@@ -5638,7 +5628,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A144" s="1">
         <v>43678</v>
       </c>
@@ -5658,7 +5648,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A145" s="1">
         <v>43709</v>
       </c>
@@ -5678,7 +5668,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A146" s="1">
         <v>43739</v>
       </c>
@@ -5698,7 +5688,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A147" s="1">
         <v>43770</v>
       </c>
@@ -5718,7 +5708,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A148" s="1">
         <v>43800</v>
       </c>
@@ -5738,7 +5728,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A149" s="1">
         <v>43831</v>
       </c>
@@ -5758,7 +5748,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A150" s="1">
         <v>43862</v>
       </c>
@@ -5778,7 +5768,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A151" s="1">
         <v>43891</v>
       </c>
@@ -5798,7 +5788,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A152" s="1">
         <v>43922</v>
       </c>
@@ -5815,7 +5805,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A153" s="1">
         <v>43952</v>
       </c>
@@ -5832,7 +5822,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A154" s="1">
         <v>43983</v>
       </c>
@@ -5849,7 +5839,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A155" s="1">
         <v>44013</v>
       </c>
@@ -5869,7 +5859,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A156" s="1">
         <v>44044</v>
       </c>
@@ -5889,7 +5879,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A157" s="1">
         <v>44075</v>
       </c>
@@ -5909,7 +5899,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A158" s="1">
         <v>44105</v>
       </c>
@@ -5929,7 +5919,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A159" s="1">
         <v>44136</v>
       </c>
@@ -5949,7 +5939,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A160" s="1">
         <v>44166</v>
       </c>
@@ -5969,7 +5959,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A161" s="1">
         <v>44197</v>
       </c>
@@ -5989,7 +5979,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A162" s="1">
         <v>44228</v>
       </c>
@@ -6009,7 +5999,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A163" s="1">
         <v>44256</v>
       </c>
@@ -6029,7 +6019,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A164" s="1">
         <v>44287</v>
       </c>
@@ -6049,7 +6039,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A165" s="1">
         <v>44317</v>
       </c>
@@ -6069,7 +6059,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A166" s="1">
         <v>44348</v>
       </c>
@@ -6089,7 +6079,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A167" s="1">
         <v>44378</v>
       </c>
@@ -6109,7 +6099,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A168" s="1">
         <v>44409</v>
       </c>
@@ -6129,7 +6119,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A169" s="1">
         <v>44440</v>
       </c>
@@ -6149,7 +6139,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A170" s="1">
         <v>44470</v>
       </c>
@@ -6169,7 +6159,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A171" s="1">
         <v>44501</v>
       </c>
@@ -6189,7 +6179,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A172" s="1">
         <v>44531</v>
       </c>
@@ -6209,7 +6199,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A173" s="1">
         <v>44562</v>
       </c>
@@ -6229,7 +6219,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A174" s="1">
         <v>44593</v>
       </c>
@@ -6249,7 +6239,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A175" s="1">
         <v>44621</v>
       </c>
@@ -6269,7 +6259,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A176" s="1">
         <v>44652</v>
       </c>
@@ -6289,7 +6279,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A177" s="1">
         <v>44682</v>
       </c>
@@ -6309,7 +6299,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A178" s="1">
         <v>44713</v>
       </c>
@@ -6329,7 +6319,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A179" s="1">
         <v>44743</v>
       </c>
@@ -6349,7 +6339,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A180" s="1">
         <v>44774</v>
       </c>
@@ -6369,7 +6359,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A181" s="1">
         <v>44805</v>
       </c>
@@ -6389,7 +6379,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A182" s="1">
         <v>44835</v>
       </c>
@@ -6409,7 +6399,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A183" s="1">
         <v>44866</v>
       </c>
@@ -6429,7 +6419,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A184" s="1">
         <v>44896</v>
       </c>
@@ -6449,7 +6439,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A185" s="1">
         <v>44927</v>
       </c>
@@ -6469,7 +6459,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A186" s="1">
         <v>44958</v>
       </c>
@@ -6489,7 +6479,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A187" s="1">
         <v>44986</v>
       </c>
@@ -6509,7 +6499,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A188" s="1">
         <v>45017</v>
       </c>
@@ -6529,7 +6519,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A189" s="1">
         <v>45047</v>
       </c>
@@ -6549,7 +6539,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A190" s="1">
         <v>45078</v>
       </c>
@@ -7329,7 +7319,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A229" s="1">
         <v>43891</v>
       </c>
@@ -7349,7 +7339,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A230" s="1">
         <v>43922</v>
       </c>
@@ -7366,7 +7356,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A231" s="1">
         <v>43952</v>
       </c>
@@ -7383,7 +7373,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A232" s="1">
         <v>43983</v>
       </c>
@@ -7403,7 +7393,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A233" s="1">
         <v>44013</v>
       </c>
@@ -7423,7 +7413,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A234" s="1">
         <v>44044</v>
       </c>
@@ -7443,7 +7433,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A235" s="1">
         <v>44075</v>
       </c>
@@ -7463,7 +7453,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A236" s="1">
         <v>44105</v>
       </c>
@@ -7483,7 +7473,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A237" s="1">
         <v>44136</v>
       </c>
@@ -7503,7 +7493,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A238" s="1">
         <v>44166</v>
       </c>
@@ -7523,7 +7513,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A239" s="1">
         <v>44197</v>
       </c>
@@ -7543,7 +7533,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A240" s="1">
         <v>44228</v>
       </c>
@@ -7563,7 +7553,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="241" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A241" s="1">
         <v>44256</v>
       </c>
@@ -7583,7 +7573,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A242" s="1">
         <v>44287</v>
       </c>
@@ -7603,7 +7593,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="243" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A243" s="1">
         <v>44317</v>
       </c>
@@ -7623,7 +7613,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="244" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A244" s="1">
         <v>44348</v>
       </c>
@@ -7643,7 +7633,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="245" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A245" s="1">
         <v>44378</v>
       </c>
@@ -7663,7 +7653,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A246" s="1">
         <v>44409</v>
       </c>
@@ -7683,7 +7673,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A247" s="1">
         <v>44440</v>
       </c>
@@ -7703,7 +7693,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A248" s="1">
         <v>44470</v>
       </c>
@@ -7723,7 +7713,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A249" s="1">
         <v>44501</v>
       </c>
@@ -7743,7 +7733,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="250" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A250" s="1">
         <v>44531</v>
       </c>
@@ -7763,7 +7753,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="251" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A251" s="1">
         <v>44562</v>
       </c>
@@ -7783,7 +7773,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="252" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A252" s="1">
         <v>44593</v>
       </c>
@@ -7803,7 +7793,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="253" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A253" s="1">
         <v>44621</v>
       </c>
@@ -7823,7 +7813,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="254" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A254" s="1">
         <v>44652</v>
       </c>
@@ -7843,7 +7833,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="255" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A255" s="1">
         <v>44682</v>
       </c>
@@ -7863,7 +7853,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="256" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A256" s="1">
         <v>44713</v>
       </c>
@@ -7883,7 +7873,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="257" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A257" s="1">
         <v>44743</v>
       </c>
@@ -7903,7 +7893,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="258" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A258" s="1">
         <v>44774</v>
       </c>
@@ -7923,7 +7913,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="259" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A259" s="1">
         <v>44805</v>
       </c>
@@ -7943,7 +7933,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A260" s="1">
         <v>44835</v>
       </c>
@@ -7963,7 +7953,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A261" s="1">
         <v>44866</v>
       </c>
@@ -7983,7 +7973,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A262" s="1">
         <v>44896</v>
       </c>
@@ -8003,7 +7993,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A263" s="1">
         <v>44927</v>
       </c>
@@ -8023,7 +8013,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="264" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A264" s="1">
         <v>44958</v>
       </c>
@@ -8043,7 +8033,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A265" s="1">
         <v>44986</v>
       </c>
@@ -8063,7 +8053,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A266" s="1">
         <v>45017</v>
       </c>
@@ -8083,7 +8073,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A267" s="1">
         <v>45047</v>
       </c>
@@ -8103,7 +8093,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A268" s="1">
         <v>45078</v>
       </c>
@@ -8123,7 +8113,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A269" s="1">
         <v>43709</v>
       </c>
@@ -8143,7 +8133,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="270" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A270" s="1">
         <v>43739</v>
       </c>
@@ -8163,7 +8153,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="271" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A271" s="1">
         <v>43770</v>
       </c>
@@ -8183,7 +8173,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A272" s="1">
         <v>43800</v>
       </c>
@@ -8203,7 +8193,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A273" s="1">
         <v>43831</v>
       </c>
@@ -8223,7 +8213,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="274" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A274" s="1">
         <v>43862</v>
       </c>
@@ -8243,7 +8233,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="275" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A275" s="1">
         <v>43891</v>
       </c>
@@ -8263,7 +8253,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A276" s="1">
         <v>43922</v>
       </c>
@@ -8283,7 +8273,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="277" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A277" s="1">
         <v>43952</v>
       </c>
@@ -8303,7 +8293,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A278" s="1">
         <v>43983</v>
       </c>
@@ -8323,7 +8313,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A279" s="1">
         <v>44013</v>
       </c>
@@ -8343,7 +8333,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="280" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A280" s="1">
         <v>44044</v>
       </c>
@@ -8363,7 +8353,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="281" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A281" s="1">
         <v>44075</v>
       </c>
@@ -8383,7 +8373,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A282" s="1">
         <v>44105</v>
       </c>
@@ -8403,7 +8393,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A283" s="1">
         <v>44136</v>
       </c>
@@ -8423,7 +8413,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A284" s="1">
         <v>44166</v>
       </c>
@@ -8443,7 +8433,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A285" s="1">
         <v>44197</v>
       </c>
@@ -8463,7 +8453,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A286" s="1">
         <v>44228</v>
       </c>
@@ -8483,7 +8473,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A287" s="1">
         <v>44256</v>
       </c>
@@ -8503,7 +8493,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A288" s="1">
         <v>44287</v>
       </c>
@@ -8523,7 +8513,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A289" s="1">
         <v>44317</v>
       </c>
@@ -8543,7 +8533,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A290" s="1">
         <v>44348</v>
       </c>
@@ -8563,7 +8553,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A291" s="1">
         <v>44378</v>
       </c>
@@ -8583,7 +8573,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A292" s="1">
         <v>44409</v>
       </c>
@@ -8603,7 +8593,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="293" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A293" s="1">
         <v>44440</v>
       </c>
@@ -8623,7 +8613,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="294" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A294" s="1">
         <v>44470</v>
       </c>
@@ -8643,7 +8633,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="295" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A295" s="1">
         <v>44501</v>
       </c>
@@ -8663,7 +8653,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A296" s="1">
         <v>44531</v>
       </c>
@@ -8683,7 +8673,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A297" s="1">
         <v>44562</v>
       </c>
@@ -8703,7 +8693,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A298" s="1">
         <v>44593</v>
       </c>
@@ -8723,7 +8713,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A299" s="1">
         <v>44621</v>
       </c>
@@ -8743,7 +8733,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A300" s="1">
         <v>44652</v>
       </c>
@@ -8763,7 +8753,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A301" s="1">
         <v>44682</v>
       </c>
@@ -8783,7 +8773,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A302" s="1">
         <v>44713</v>
       </c>
@@ -8803,7 +8793,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="303" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A303" s="1">
         <v>44743</v>
       </c>
@@ -8823,7 +8813,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="304" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A304" s="1">
         <v>44774</v>
       </c>
@@ -8843,7 +8833,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="305" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A305" s="1">
         <v>44805</v>
       </c>
@@ -8863,7 +8853,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="306" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A306" s="1">
         <v>44835</v>
       </c>
@@ -8883,7 +8873,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="307" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A307" s="1">
         <v>44866</v>
       </c>
@@ -8903,7 +8893,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="308" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A308" s="1">
         <v>44896</v>
       </c>
@@ -8923,7 +8913,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="309" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A309" s="1">
         <v>44927</v>
       </c>
@@ -8943,7 +8933,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="310" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A310" s="1">
         <v>44958</v>
       </c>
@@ -8963,7 +8953,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="311" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A311" s="1">
         <v>44986</v>
       </c>
@@ -8983,7 +8973,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="312" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A312" s="1">
         <v>45017</v>
       </c>
@@ -9003,7 +8993,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="313" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A313" s="1">
         <v>45047</v>
       </c>
@@ -9023,7 +9013,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="314" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A314" s="1">
         <v>45078</v>
       </c>
@@ -9043,7 +9033,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="315" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A315" s="1">
         <v>45108</v>
       </c>
@@ -9063,7 +9053,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="316" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A316" s="1">
         <v>43678</v>
       </c>
@@ -9083,7 +9073,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="317" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A317" s="1">
         <v>43709</v>
       </c>
@@ -9103,7 +9093,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="318" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A318" s="1">
         <v>43739</v>
       </c>
@@ -9123,7 +9113,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="319" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A319" s="1">
         <v>43770</v>
       </c>
@@ -9143,7 +9133,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="320" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A320" s="1">
         <v>43800</v>
       </c>
@@ -9163,7 +9153,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="321" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A321" s="1">
         <v>43831</v>
       </c>
@@ -9183,7 +9173,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="322" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A322" s="1">
         <v>43862</v>
       </c>
@@ -9203,7 +9193,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A323" s="1">
         <v>43891</v>
       </c>
@@ -9223,7 +9213,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A324" s="1">
         <v>43922</v>
       </c>
@@ -9243,7 +9233,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="325" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A325" s="1">
         <v>43952</v>
       </c>
@@ -9263,7 +9253,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A326" s="1">
         <v>43983</v>
       </c>
@@ -9283,7 +9273,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="327" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A327" s="1">
         <v>44013</v>
       </c>
@@ -9303,7 +9293,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="328" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A328" s="1">
         <v>44044</v>
       </c>
@@ -9323,7 +9313,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="329" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A329" s="1">
         <v>44075</v>
       </c>
@@ -9343,7 +9333,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A330" s="1">
         <v>44105</v>
       </c>
@@ -9363,7 +9353,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="331" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A331" s="1">
         <v>44136</v>
       </c>
@@ -9383,7 +9373,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A332" s="1">
         <v>44166</v>
       </c>
@@ -9403,7 +9393,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="333" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A333" s="1">
         <v>44197</v>
       </c>
@@ -9423,7 +9413,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="334" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A334" s="1">
         <v>44228</v>
       </c>
@@ -9443,7 +9433,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A335" s="1">
         <v>44256</v>
       </c>
@@ -9463,7 +9453,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="336" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A336" s="1">
         <v>44287</v>
       </c>
@@ -9483,7 +9473,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A337" s="1">
         <v>44317</v>
       </c>
@@ -9503,7 +9493,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A338" s="1">
         <v>44348</v>
       </c>
@@ -9523,7 +9513,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="339" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A339" s="1">
         <v>44378</v>
       </c>
@@ -9543,7 +9533,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="340" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A340" s="1">
         <v>44409</v>
       </c>
@@ -9563,7 +9553,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="341" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A341" s="1">
         <v>44440</v>
       </c>
@@ -9583,7 +9573,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="342" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A342" s="1">
         <v>44470</v>
       </c>
@@ -9603,7 +9593,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="343" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A343" s="1">
         <v>44501</v>
       </c>
@@ -9623,7 +9613,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="344" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A344" s="1">
         <v>44531</v>
       </c>
@@ -9643,7 +9633,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="345" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A345" s="1">
         <v>44562</v>
       </c>
@@ -9663,7 +9653,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="346" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A346" s="1">
         <v>44593</v>
       </c>
@@ -9683,7 +9673,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="347" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A347" s="1">
         <v>44621</v>
       </c>
@@ -9703,7 +9693,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A348" s="1">
         <v>44652</v>
       </c>
@@ -9723,7 +9713,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="349" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A349" s="1">
         <v>44682</v>
       </c>
@@ -9743,7 +9733,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="350" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A350" s="1">
         <v>44713</v>
       </c>
@@ -9763,7 +9753,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="351" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A351" s="1">
         <v>44743</v>
       </c>
@@ -9783,7 +9773,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="352" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A352" s="1">
         <v>44774</v>
       </c>
@@ -9803,7 +9793,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="353" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A353" s="1">
         <v>44805</v>
       </c>
@@ -9823,7 +9813,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="354" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A354" s="1">
         <v>44835</v>
       </c>
@@ -9843,7 +9833,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="355" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A355" s="1">
         <v>44866</v>
       </c>
@@ -9863,7 +9853,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="356" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A356" s="1">
         <v>44896</v>
       </c>
@@ -9883,7 +9873,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="357" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A357" s="1">
         <v>44927</v>
       </c>
@@ -9903,7 +9893,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="358" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A358" s="1">
         <v>44958</v>
       </c>
@@ -9923,7 +9913,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="359" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A359" s="1">
         <v>44986</v>
       </c>
@@ -9943,7 +9933,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="360" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A360" s="1">
         <v>45017</v>
       </c>
@@ -9963,7 +9953,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="361" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A361" s="1">
         <v>45047</v>
       </c>
@@ -9983,7 +9973,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="362" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A362" s="1">
         <v>45078</v>
       </c>
@@ -10003,7 +9993,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="363" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A363" s="1">
         <v>44805</v>
       </c>
@@ -10023,7 +10013,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="364" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A364" s="1">
         <v>44835</v>
       </c>
@@ -10043,7 +10033,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="365" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A365" s="1">
         <v>44866</v>
       </c>
@@ -10063,7 +10053,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="366" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A366" s="1">
         <v>44896</v>
       </c>
@@ -10083,7 +10073,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="367" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A367" s="1">
         <v>44927</v>
       </c>
@@ -10103,7 +10093,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="368" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A368" s="1">
         <v>44958</v>
       </c>
@@ -10123,7 +10113,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="369" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A369" s="1">
         <v>44986</v>
       </c>
@@ -10143,7 +10133,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="370" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A370" s="1">
         <v>45017</v>
       </c>
@@ -10163,7 +10153,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="371" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A371" s="1">
         <v>45047</v>
       </c>
@@ -10183,7 +10173,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="372" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A372" s="1">
         <v>45078</v>
       </c>
@@ -10203,7 +10193,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="373" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A373" s="1">
         <v>44501</v>
       </c>
@@ -10223,7 +10213,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="374" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A374" s="1">
         <v>44531</v>
       </c>
@@ -10243,7 +10233,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="375" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A375" s="1">
         <v>44562</v>
       </c>
@@ -10263,7 +10253,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="376" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A376" s="1">
         <v>44593</v>
       </c>
@@ -10283,7 +10273,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="377" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A377" s="1">
         <v>44621</v>
       </c>
@@ -10303,7 +10293,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="378" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A378" s="1">
         <v>44652</v>
       </c>
@@ -10323,7 +10313,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="379" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A379" s="1">
         <v>44682</v>
       </c>
@@ -10343,7 +10333,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="380" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A380" s="1">
         <v>44713</v>
       </c>
@@ -10363,7 +10353,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="381" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A381" s="1">
         <v>44743</v>
       </c>
@@ -10383,7 +10373,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="382" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A382" s="1">
         <v>44774</v>
       </c>
@@ -10403,7 +10393,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="383" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A383" s="1">
         <v>44805</v>
       </c>
@@ -10423,7 +10413,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="384" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A384" s="1">
         <v>44835</v>
       </c>
@@ -10443,7 +10433,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="385" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A385" s="1">
         <v>44866</v>
       </c>
@@ -10463,7 +10453,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="386" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A386" s="1">
         <v>44896</v>
       </c>
@@ -10483,7 +10473,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="387" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A387" s="1">
         <v>44927</v>
       </c>
@@ -10503,7 +10493,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="388" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A388" s="1">
         <v>44958</v>
       </c>
@@ -10523,7 +10513,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="389" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A389" s="1">
         <v>44986</v>
       </c>
@@ -10543,7 +10533,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="390" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A390" s="1">
         <v>45017</v>
       </c>
@@ -10563,7 +10553,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="391" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A391" s="1">
         <v>45047</v>
       </c>
@@ -10583,7 +10573,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="392" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A392" s="1">
         <v>45078</v>
       </c>
@@ -10603,7 +10593,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="393" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A393" s="1">
         <v>44531</v>
       </c>
@@ -10623,7 +10613,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="394" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A394" s="1">
         <v>44562</v>
       </c>
@@ -10643,7 +10633,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="395" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A395" s="1">
         <v>44593</v>
       </c>
@@ -10663,7 +10653,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="396" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A396" s="1">
         <v>44621</v>
       </c>
@@ -10683,7 +10673,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="397" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A397" s="1">
         <v>44652</v>
       </c>
@@ -10703,7 +10693,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="398" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A398" s="1">
         <v>44682</v>
       </c>
@@ -10723,7 +10713,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="399" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A399" s="1">
         <v>44713</v>
       </c>
@@ -10743,7 +10733,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="400" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A400" s="1">
         <v>44743</v>
       </c>
@@ -10763,7 +10753,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="401" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A401" s="1">
         <v>44774</v>
       </c>
@@ -10783,7 +10773,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="402" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A402" s="1">
         <v>44805</v>
       </c>
@@ -10803,7 +10793,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="403" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A403" s="1">
         <v>44835</v>
       </c>
@@ -10823,7 +10813,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="404" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A404" s="1">
         <v>44866</v>
       </c>
@@ -10843,7 +10833,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="405" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A405" s="1">
         <v>44896</v>
       </c>
@@ -10863,7 +10853,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="406" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A406" s="1">
         <v>44927</v>
       </c>
@@ -10883,7 +10873,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="407" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A407" s="1">
         <v>44958</v>
       </c>
@@ -10903,7 +10893,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="408" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A408" s="1">
         <v>44986</v>
       </c>
@@ -10923,7 +10913,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="409" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A409" s="1">
         <v>45017</v>
       </c>
@@ -10943,7 +10933,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="410" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A410" s="1">
         <v>45047</v>
       </c>
@@ -10963,7 +10953,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="411" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A411" s="1">
         <v>45078</v>
       </c>
@@ -10983,7 +10973,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="412" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A412" s="1">
         <v>45108</v>
       </c>
@@ -11003,7 +10993,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="413" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A413" s="1">
         <v>44927</v>
       </c>
@@ -11023,7 +11013,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="414" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A414" s="1">
         <v>44958</v>
       </c>
@@ -11043,7 +11033,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="415" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A415" s="1">
         <v>44986</v>
       </c>
@@ -11063,7 +11053,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="416" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A416" s="1">
         <v>45017</v>
       </c>
@@ -11083,7 +11073,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="417" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A417" s="1">
         <v>45047</v>
       </c>
@@ -11103,7 +11093,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="418" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A418" s="1">
         <v>45078</v>
       </c>
@@ -11123,7 +11113,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="419" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A419" s="1">
         <v>43891</v>
       </c>
@@ -11143,7 +11133,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="420" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A420" s="1">
         <v>43922</v>
       </c>
@@ -11160,7 +11150,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="421" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A421" s="1">
         <v>43952</v>
       </c>
@@ -11177,7 +11167,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="422" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A422" s="1">
         <v>43983</v>
       </c>
@@ -11194,7 +11184,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="423" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A423" s="1">
         <v>44013</v>
       </c>
@@ -11211,7 +11201,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="424" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A424" s="1">
         <v>44044</v>
       </c>
@@ -11231,7 +11221,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="425" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A425" s="1">
         <v>44075</v>
       </c>
@@ -11251,7 +11241,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="426" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A426" s="1">
         <v>44105</v>
       </c>
@@ -11271,7 +11261,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="427" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A427" s="1">
         <v>44136</v>
       </c>
@@ -11291,7 +11281,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="428" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A428" s="1">
         <v>44166</v>
       </c>
@@ -11311,7 +11301,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="429" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A429" s="1">
         <v>44197</v>
       </c>
@@ -11331,7 +11321,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="430" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A430" s="1">
         <v>44228</v>
       </c>
@@ -11351,7 +11341,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="431" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A431" s="1">
         <v>44256</v>
       </c>
@@ -11371,7 +11361,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="432" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A432" s="1">
         <v>44287</v>
       </c>
@@ -11391,7 +11381,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="433" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A433" s="1">
         <v>44317</v>
       </c>
@@ -11411,7 +11401,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="434" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A434" s="1">
         <v>44348</v>
       </c>
@@ -11431,7 +11421,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="435" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A435" s="1">
         <v>44378</v>
       </c>
@@ -11451,7 +11441,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="436" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A436" s="1">
         <v>44409</v>
       </c>
@@ -11471,7 +11461,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="437" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A437" s="1">
         <v>44440</v>
       </c>
@@ -11491,7 +11481,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="438" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A438" s="1">
         <v>44470</v>
       </c>
@@ -11511,7 +11501,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="439" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A439" s="1">
         <v>44501</v>
       </c>
@@ -11531,7 +11521,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="440" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A440" s="1">
         <v>44531</v>
       </c>
@@ -11551,7 +11541,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="441" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A441" s="1">
         <v>44562</v>
       </c>
@@ -11571,7 +11561,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="442" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A442" s="1">
         <v>44593</v>
       </c>
@@ -11591,7 +11581,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="443" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A443" s="1">
         <v>44621</v>
       </c>
@@ -11611,7 +11601,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="444" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A444" s="1">
         <v>44652</v>
       </c>
@@ -11631,7 +11621,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="445" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A445" s="1">
         <v>44682</v>
       </c>
@@ -11651,7 +11641,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="446" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A446" s="1">
         <v>44713</v>
       </c>
@@ -11671,7 +11661,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="447" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A447" s="1">
         <v>44743</v>
       </c>
@@ -11691,7 +11681,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="448" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A448" s="1">
         <v>44774</v>
       </c>
@@ -11711,7 +11701,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="449" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A449" s="1">
         <v>44805</v>
       </c>
@@ -11731,7 +11721,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="450" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A450" s="1">
         <v>44835</v>
       </c>
@@ -11751,7 +11741,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="451" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A451" s="1">
         <v>44866</v>
       </c>
@@ -11771,7 +11761,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="452" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A452" s="1">
         <v>44896</v>
       </c>
@@ -11791,7 +11781,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="453" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A453" s="1">
         <v>44927</v>
       </c>
@@ -11811,7 +11801,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="454" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A454" s="1">
         <v>44958</v>
       </c>
@@ -11831,7 +11821,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="455" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A455" s="1">
         <v>44986</v>
       </c>
@@ -11851,7 +11841,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="456" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A456" s="1">
         <v>45017</v>
       </c>
@@ -11871,7 +11861,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="457" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A457" s="1">
         <v>45047</v>
       </c>
@@ -11891,7 +11881,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="458" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A458" s="1">
         <v>45078</v>
       </c>
@@ -11911,7 +11901,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="459" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A459" s="1">
         <v>43313</v>
       </c>
@@ -11931,7 +11921,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="460" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A460" s="1">
         <v>43344</v>
       </c>
@@ -11951,7 +11941,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="461" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A461" s="1">
         <v>43374</v>
       </c>
@@ -11971,7 +11961,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="462" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A462" s="1">
         <v>43405</v>
       </c>
@@ -11991,7 +11981,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="463" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A463" s="1">
         <v>43435</v>
       </c>
@@ -12011,7 +12001,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="464" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A464" s="1">
         <v>43466</v>
       </c>
@@ -12031,7 +12021,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="465" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A465" s="1">
         <v>43497</v>
       </c>
@@ -12051,7 +12041,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="466" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A466" s="1">
         <v>43525</v>
       </c>
@@ -12071,7 +12061,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="467" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A467" s="1">
         <v>43556</v>
       </c>
@@ -12091,7 +12081,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="468" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A468" s="1">
         <v>43586</v>
       </c>
@@ -12111,7 +12101,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="469" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A469" s="1">
         <v>43617</v>
       </c>
@@ -12131,7 +12121,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="470" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A470" s="1">
         <v>43647</v>
       </c>
@@ -12151,7 +12141,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="471" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A471" s="1">
         <v>43678</v>
       </c>
@@ -12171,7 +12161,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="472" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A472" s="1">
         <v>43709</v>
       </c>
@@ -12191,7 +12181,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="473" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A473" s="1">
         <v>43739</v>
       </c>
@@ -12211,7 +12201,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="474" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A474" s="1">
         <v>43770</v>
       </c>
@@ -12231,7 +12221,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="475" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A475" s="1">
         <v>43800</v>
       </c>
@@ -12251,7 +12241,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="476" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A476" s="1">
         <v>43831</v>
       </c>
@@ -12271,7 +12261,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="477" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A477" s="1">
         <v>43862</v>
       </c>
@@ -12291,7 +12281,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="478" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A478" s="1">
         <v>43891</v>
       </c>
@@ -12311,7 +12301,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="479" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A479" s="1">
         <v>43922</v>
       </c>
@@ -12319,7 +12309,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="480" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A480" s="1">
         <v>43952</v>
       </c>
@@ -12339,7 +12329,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="481" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A481" s="1">
         <v>43983</v>
       </c>
@@ -12359,7 +12349,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="482" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A482" s="1">
         <v>44013</v>
       </c>
@@ -12379,7 +12369,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="483" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A483" s="1">
         <v>44044</v>
       </c>
@@ -12399,7 +12389,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="484" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A484" s="1">
         <v>44075</v>
       </c>
@@ -12419,7 +12409,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="485" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A485" s="1">
         <v>44105</v>
       </c>
@@ -12439,7 +12429,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="486" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A486" s="1">
         <v>44136</v>
       </c>
@@ -12459,7 +12449,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="487" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A487" s="1">
         <v>44166</v>
       </c>
@@ -12479,7 +12469,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="488" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A488" s="1">
         <v>44197</v>
       </c>
@@ -12499,7 +12489,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="489" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A489" s="1">
         <v>44228</v>
       </c>
@@ -12519,7 +12509,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="490" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A490" s="1">
         <v>44256</v>
       </c>
@@ -12539,7 +12529,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="491" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A491" s="1">
         <v>44287</v>
       </c>
@@ -12559,7 +12549,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="492" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A492" s="1">
         <v>44317</v>
       </c>
@@ -12579,7 +12569,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="493" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A493" s="1">
         <v>44348</v>
       </c>
@@ -12599,7 +12589,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="494" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A494" s="1">
         <v>44378</v>
       </c>
@@ -12619,7 +12609,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="495" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A495" s="1">
         <v>44409</v>
       </c>
@@ -12639,7 +12629,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="496" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A496" s="1">
         <v>44440</v>
       </c>
@@ -12659,7 +12649,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="497" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A497" s="1">
         <v>44470</v>
       </c>
@@ -12679,7 +12669,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="498" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A498" s="1">
         <v>44501</v>
       </c>
@@ -12699,7 +12689,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="499" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A499" s="1">
         <v>44531</v>
       </c>
@@ -12719,7 +12709,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="500" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A500" s="1">
         <v>44562</v>
       </c>
@@ -12739,7 +12729,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="501" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A501" s="1">
         <v>44593</v>
       </c>
@@ -12759,7 +12749,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="502" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A502" s="1">
         <v>44621</v>
       </c>
@@ -12779,7 +12769,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="503" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A503" s="1">
         <v>44652</v>
       </c>
@@ -12799,7 +12789,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="504" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A504" s="1">
         <v>44682</v>
       </c>
@@ -12819,7 +12809,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="505" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A505" s="1">
         <v>44713</v>
       </c>
@@ -12839,7 +12829,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="506" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A506" s="1">
         <v>44743</v>
       </c>
@@ -12859,7 +12849,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="507" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A507" s="1">
         <v>44774</v>
       </c>
@@ -12879,7 +12869,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="508" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A508" s="1">
         <v>44805</v>
       </c>
@@ -12899,7 +12889,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="509" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A509" s="1">
         <v>44835</v>
       </c>
@@ -12919,7 +12909,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="510" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A510" s="1">
         <v>44866</v>
       </c>
@@ -12939,7 +12929,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="511" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A511" s="1">
         <v>44896</v>
       </c>
@@ -12959,7 +12949,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="512" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A512" s="1">
         <v>44927</v>
       </c>
@@ -12979,7 +12969,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="513" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A513" s="1">
         <v>44958</v>
       </c>
@@ -12999,7 +12989,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="514" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A514" s="1">
         <v>44986</v>
       </c>
@@ -13019,7 +13009,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="515" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A515" s="1">
         <v>45017</v>
       </c>
@@ -13039,7 +13029,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="516" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A516" s="1">
         <v>45047</v>
       </c>
@@ -13059,7 +13049,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="517" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A517" s="1">
         <v>45078</v>
       </c>
@@ -13079,7 +13069,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="518" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A518" s="1">
         <v>43891</v>
       </c>
@@ -13099,7 +13089,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="519" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A519" s="1">
         <v>43922</v>
       </c>
@@ -13119,7 +13109,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="520" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A520" s="1">
         <v>43952</v>
       </c>
@@ -13139,7 +13129,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="521" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A521" s="1">
         <v>43983</v>
       </c>
@@ -13159,7 +13149,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="522" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A522" s="1">
         <v>44013</v>
       </c>
@@ -13179,7 +13169,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="523" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A523" s="1">
         <v>44044</v>
       </c>
@@ -13199,7 +13189,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="524" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A524" s="1">
         <v>44075</v>
       </c>
@@ -13219,7 +13209,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="525" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A525" s="1">
         <v>44105</v>
       </c>
@@ -13239,7 +13229,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="526" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A526" s="1">
         <v>44136</v>
       </c>
@@ -13259,7 +13249,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="527" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A527" s="1">
         <v>44166</v>
       </c>
@@ -13279,7 +13269,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="528" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A528" s="1">
         <v>44197</v>
       </c>
@@ -13299,7 +13289,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="529" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A529" s="1">
         <v>44228</v>
       </c>
@@ -13319,7 +13309,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="530" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A530" s="1">
         <v>44256</v>
       </c>
@@ -13339,7 +13329,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="531" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A531" s="1">
         <v>44287</v>
       </c>
@@ -13359,7 +13349,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="532" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A532" s="1">
         <v>44317</v>
       </c>
@@ -13379,7 +13369,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="533" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A533" s="1">
         <v>44348</v>
       </c>
@@ -13399,7 +13389,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="534" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A534" s="1">
         <v>44378</v>
       </c>
@@ -13419,7 +13409,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="535" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A535" s="1">
         <v>44409</v>
       </c>
@@ -13439,7 +13429,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="536" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A536" s="1">
         <v>44440</v>
       </c>
@@ -13459,7 +13449,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="537" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A537" s="1">
         <v>44470</v>
       </c>
@@ -13479,7 +13469,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="538" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A538" s="1">
         <v>44501</v>
       </c>
@@ -13499,7 +13489,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="539" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A539" s="1">
         <v>44531</v>
       </c>
@@ -13519,7 +13509,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="540" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A540" s="1">
         <v>44562</v>
       </c>
@@ -13539,7 +13529,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="541" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A541" s="1">
         <v>44593</v>
       </c>
@@ -13559,7 +13549,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="542" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A542" s="1">
         <v>44621</v>
       </c>
@@ -13579,7 +13569,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="543" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A543" s="1">
         <v>44652</v>
       </c>
@@ -13599,7 +13589,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="544" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A544" s="1">
         <v>44682</v>
       </c>
@@ -13619,7 +13609,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="545" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A545" s="1">
         <v>44713</v>
       </c>
@@ -13639,7 +13629,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="546" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A546" s="1">
         <v>44743</v>
       </c>
@@ -13659,7 +13649,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="547" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A547" s="1">
         <v>44774</v>
       </c>
@@ -13679,7 +13669,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="548" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A548" s="1">
         <v>44805</v>
       </c>
@@ -13699,7 +13689,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="549" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A549" s="1">
         <v>44835</v>
       </c>
@@ -13719,7 +13709,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="550" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A550" s="1">
         <v>44866</v>
       </c>
@@ -13739,7 +13729,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="551" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A551" s="1">
         <v>44896</v>
       </c>
@@ -13759,7 +13749,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="552" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A552" s="1">
         <v>44927</v>
       </c>
@@ -13779,7 +13769,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="553" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A553" s="1">
         <v>44958</v>
       </c>
@@ -13799,7 +13789,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="554" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A554" s="1">
         <v>44986</v>
       </c>
@@ -13819,7 +13809,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="555" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A555" s="1">
         <v>45017</v>
       </c>
@@ -13839,7 +13829,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="556" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A556" s="1">
         <v>45047</v>
       </c>
@@ -13859,7 +13849,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="557" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A557" s="1">
         <v>45078</v>
       </c>
@@ -13879,7 +13869,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="558" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A558" s="1">
         <v>45108</v>
       </c>
@@ -13899,7 +13889,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="559" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A559" s="1">
         <v>43252</v>
       </c>
@@ -13919,7 +13909,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="560" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A560" s="1">
         <v>43282</v>
       </c>
@@ -13939,7 +13929,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="561" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A561" s="1">
         <v>43313</v>
       </c>
@@ -13959,7 +13949,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="562" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A562" s="1">
         <v>43344</v>
       </c>
@@ -13979,7 +13969,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="563" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A563" s="1">
         <v>43374</v>
       </c>
@@ -13999,7 +13989,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="564" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A564" s="1">
         <v>43405</v>
       </c>
@@ -14019,7 +14009,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="565" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A565" s="1">
         <v>43435</v>
       </c>
@@ -14039,7 +14029,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="566" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A566" s="1">
         <v>43466</v>
       </c>
@@ -14059,7 +14049,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="567" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A567" s="1">
         <v>43497</v>
       </c>
@@ -14079,7 +14069,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="568" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A568" s="1">
         <v>43525</v>
       </c>
@@ -14099,7 +14089,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="569" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A569" s="1">
         <v>43556</v>
       </c>
@@ -14119,7 +14109,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="570" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A570" s="1">
         <v>43586</v>
       </c>
@@ -14139,7 +14129,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="571" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A571" s="1">
         <v>43617</v>
       </c>
@@ -14159,7 +14149,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="572" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A572" s="1">
         <v>43647</v>
       </c>
@@ -14179,7 +14169,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="573" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A573" s="1">
         <v>43678</v>
       </c>
@@ -14199,7 +14189,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="574" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A574" s="1">
         <v>43709</v>
       </c>
@@ -14219,7 +14209,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="575" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A575" s="1">
         <v>43739</v>
       </c>
@@ -14239,7 +14229,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="576" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A576" s="1">
         <v>43770</v>
       </c>
@@ -14259,7 +14249,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="577" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A577" s="1">
         <v>43800</v>
       </c>
@@ -14279,7 +14269,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="578" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A578" s="1">
         <v>43831</v>
       </c>
@@ -14299,7 +14289,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="579" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A579" s="1">
         <v>43862</v>
       </c>
@@ -14319,7 +14309,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="580" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A580" s="1">
         <v>43891</v>
       </c>
@@ -14339,7 +14329,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="581" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A581" s="1">
         <v>43922</v>
       </c>
@@ -14359,7 +14349,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="582" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A582" s="1">
         <v>43952</v>
       </c>
@@ -14379,7 +14369,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="583" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A583" s="1">
         <v>43983</v>
       </c>
@@ -14399,7 +14389,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="584" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A584" s="1">
         <v>44013</v>
       </c>
@@ -14419,7 +14409,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="585" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A585" s="1">
         <v>44044</v>
       </c>
@@ -14439,7 +14429,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="586" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A586" s="1">
         <v>44075</v>
       </c>
@@ -14459,7 +14449,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="587" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A587" s="1">
         <v>44105</v>
       </c>
@@ -14479,7 +14469,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="588" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A588" s="1">
         <v>44136</v>
       </c>
@@ -14499,7 +14489,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="589" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A589" s="1">
         <v>44166</v>
       </c>
@@ -14519,7 +14509,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="590" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A590" s="1">
         <v>44197</v>
       </c>
@@ -14539,7 +14529,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="591" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A591" s="1">
         <v>44228</v>
       </c>
@@ -14559,7 +14549,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="592" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A592" s="1">
         <v>44256</v>
       </c>
@@ -14579,7 +14569,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="593" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A593" s="1">
         <v>44287</v>
       </c>
@@ -14599,7 +14589,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="594" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A594" s="1">
         <v>44317</v>
       </c>
@@ -14619,7 +14609,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="595" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A595" s="1">
         <v>44348</v>
       </c>
@@ -14639,7 +14629,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="596" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A596" s="1">
         <v>44378</v>
       </c>
@@ -14659,7 +14649,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="597" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A597" s="1">
         <v>44409</v>
       </c>
@@ -14679,7 +14669,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="598" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A598" s="1">
         <v>44440</v>
       </c>
@@ -14699,7 +14689,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="599" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A599" s="1">
         <v>44470</v>
       </c>
@@ -14719,7 +14709,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="600" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A600" s="1">
         <v>44501</v>
       </c>
@@ -14739,7 +14729,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="601" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A601" s="1">
         <v>44531</v>
       </c>
@@ -14759,7 +14749,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="602" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A602" s="1">
         <v>44562</v>
       </c>
@@ -14779,7 +14769,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="603" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A603" s="1">
         <v>44593</v>
       </c>
@@ -14799,7 +14789,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="604" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="604" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A604" s="1">
         <v>44621</v>
       </c>
@@ -14819,7 +14809,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="605" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="605" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A605" s="1">
         <v>44652</v>
       </c>
@@ -14839,7 +14829,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="606" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A606" s="1">
         <v>44682</v>
       </c>
@@ -14859,7 +14849,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="607" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A607" s="1">
         <v>44713</v>
       </c>
@@ -14879,7 +14869,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="608" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A608" s="1">
         <v>44743</v>
       </c>
@@ -14899,7 +14889,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="609" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A609" s="1">
         <v>44774</v>
       </c>
@@ -14919,7 +14909,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="610" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A610" s="1">
         <v>44805</v>
       </c>
@@ -14939,7 +14929,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="611" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A611" s="1">
         <v>44835</v>
       </c>
@@ -14959,7 +14949,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="612" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A612" s="1">
         <v>44866</v>
       </c>
@@ -14979,7 +14969,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="613" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="613" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A613" s="1">
         <v>44896</v>
       </c>
@@ -14999,7 +14989,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="614" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A614" s="1">
         <v>44927</v>
       </c>
@@ -15019,7 +15009,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="615" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A615" s="1">
         <v>44958</v>
       </c>
@@ -15039,7 +15029,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="616" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A616" s="1">
         <v>44986</v>
       </c>
@@ -15059,7 +15049,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="617" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="617" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A617" s="1">
         <v>45017</v>
       </c>
@@ -15079,7 +15069,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="618" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="618" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A618" s="1">
         <v>45047</v>
       </c>
@@ -15099,7 +15089,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="619" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="619" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A619" s="1">
         <v>45078</v>
       </c>
@@ -15119,7 +15109,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="620" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="620" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A620" s="1">
         <v>43800</v>
       </c>
@@ -15139,7 +15129,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="621" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A621" s="1">
         <v>43831</v>
       </c>
@@ -15159,7 +15149,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="622" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A622" s="1">
         <v>43862</v>
       </c>
@@ -15179,7 +15169,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="623" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A623" s="1">
         <v>43891</v>
       </c>
@@ -15199,7 +15189,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="624" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A624" s="1">
         <v>43922</v>
       </c>
@@ -15219,7 +15209,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="625" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="625" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A625" s="1">
         <v>43952</v>
       </c>
@@ -15239,7 +15229,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="626" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="626" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A626" s="1">
         <v>43983</v>
       </c>
@@ -15259,7 +15249,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="627" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="627" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A627" s="1">
         <v>44013</v>
       </c>
@@ -15279,7 +15269,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="628" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="628" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A628" s="1">
         <v>44044</v>
       </c>
@@ -15299,7 +15289,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="629" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="629" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A629" s="1">
         <v>44075</v>
       </c>
@@ -15319,7 +15309,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="630" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="630" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A630" s="1">
         <v>44105</v>
       </c>
@@ -15339,7 +15329,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="631" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="631" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A631" s="1">
         <v>44136</v>
       </c>
@@ -15359,7 +15349,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="632" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="632" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A632" s="1">
         <v>44166</v>
       </c>
@@ -15379,7 +15369,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="633" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="633" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A633" s="1">
         <v>44197</v>
       </c>
@@ -15399,7 +15389,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="634" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="634" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A634" s="1">
         <v>44228</v>
       </c>
@@ -15419,7 +15409,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="635" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="635" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A635" s="1">
         <v>44256</v>
       </c>
@@ -15439,7 +15429,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="636" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="636" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A636" s="1">
         <v>44287</v>
       </c>
@@ -15459,7 +15449,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="637" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="637" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A637" s="1">
         <v>44317</v>
       </c>
@@ -15479,7 +15469,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="638" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="638" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A638" s="1">
         <v>44348</v>
       </c>
@@ -15499,7 +15489,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="639" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="639" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A639" s="1">
         <v>44378</v>
       </c>
@@ -15519,7 +15509,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="640" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="640" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A640" s="1">
         <v>44409</v>
       </c>
@@ -15539,7 +15529,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="641" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="641" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A641" s="1">
         <v>44440</v>
       </c>
@@ -15559,7 +15549,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="642" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="642" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A642" s="1">
         <v>44470</v>
       </c>
@@ -15579,7 +15569,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="643" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="643" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A643" s="1">
         <v>44501</v>
       </c>
@@ -15599,7 +15589,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="644" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="644" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A644" s="1">
         <v>44531</v>
       </c>
@@ -15619,7 +15609,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="645" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="645" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A645" s="1">
         <v>44562</v>
       </c>
@@ -15639,7 +15629,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="646" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="646" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A646" s="1">
         <v>44593</v>
       </c>
@@ -15659,7 +15649,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="647" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="647" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A647" s="1">
         <v>44621</v>
       </c>
@@ -15679,7 +15669,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="648" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="648" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A648" s="1">
         <v>44652</v>
       </c>
@@ -15699,7 +15689,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="649" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="649" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A649" s="1">
         <v>44682</v>
       </c>
@@ -15719,7 +15709,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="650" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="650" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A650" s="1">
         <v>44713</v>
       </c>
@@ -15739,7 +15729,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="651" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="651" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A651" s="1">
         <v>44743</v>
       </c>
@@ -15759,7 +15749,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="652" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="652" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A652" s="1">
         <v>44774</v>
       </c>
@@ -15779,7 +15769,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="653" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="653" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A653" s="1">
         <v>44805</v>
       </c>
@@ -15799,7 +15789,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="654" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="654" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A654" s="1">
         <v>44835</v>
       </c>
@@ -15819,7 +15809,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="655" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="655" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A655" s="1">
         <v>44866</v>
       </c>
@@ -15839,7 +15829,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="656" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="656" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A656" s="1">
         <v>44896</v>
       </c>
@@ -15859,7 +15849,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="657" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="657" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A657" s="1">
         <v>44927</v>
       </c>
@@ -15879,7 +15869,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="658" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="658" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A658" s="1">
         <v>44958</v>
       </c>
@@ -15899,7 +15889,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="659" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="659" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A659" s="1">
         <v>44986</v>
       </c>
@@ -15919,7 +15909,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="660" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="660" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A660" s="1">
         <v>45017</v>
       </c>
@@ -15939,7 +15929,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="661" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="661" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A661" s="1">
         <v>45047</v>
       </c>
@@ -15959,7 +15949,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="662" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="662" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A662" s="1">
         <v>45078</v>
       </c>
@@ -15979,7 +15969,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="663" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="663" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A663" s="1">
         <v>43252</v>
       </c>
@@ -15999,7 +15989,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="664" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="664" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A664" s="1">
         <v>43282</v>
       </c>
@@ -16019,7 +16009,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="665" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="665" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A665" s="1">
         <v>43313</v>
       </c>
@@ -16039,7 +16029,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="666" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="666" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A666" s="1">
         <v>43344</v>
       </c>
@@ -16059,7 +16049,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="667" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="667" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A667" s="1">
         <v>43374</v>
       </c>
@@ -16079,7 +16069,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="668" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="668" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A668" s="1">
         <v>43405</v>
       </c>
@@ -16099,7 +16089,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="669" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="669" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A669" s="1">
         <v>43435</v>
       </c>
@@ -16119,7 +16109,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="670" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="670" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A670" s="1">
         <v>43466</v>
       </c>
@@ -16139,7 +16129,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="671" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="671" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A671" s="1">
         <v>43497</v>
       </c>
@@ -16159,7 +16149,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="672" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="672" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A672" s="1">
         <v>43525</v>
       </c>
@@ -16179,7 +16169,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="673" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="673" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A673" s="1">
         <v>43556</v>
       </c>
@@ -16199,7 +16189,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="674" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="674" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A674" s="1">
         <v>43586</v>
       </c>
@@ -16219,7 +16209,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="675" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="675" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A675" s="1">
         <v>43617</v>
       </c>
@@ -16239,7 +16229,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="676" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="676" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A676" s="1">
         <v>43647</v>
       </c>
@@ -16259,7 +16249,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="677" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="677" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A677" s="1">
         <v>43678</v>
       </c>
@@ -16279,7 +16269,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="678" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="678" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A678" s="1">
         <v>43709</v>
       </c>
@@ -16299,7 +16289,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="679" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="679" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A679" s="1">
         <v>43739</v>
       </c>
@@ -16319,7 +16309,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="680" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="680" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A680" s="1">
         <v>43770</v>
       </c>
@@ -16339,7 +16329,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="681" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="681" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A681" s="1">
         <v>43800</v>
       </c>
@@ -16359,7 +16349,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="682" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="682" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A682" s="1">
         <v>43831</v>
       </c>
@@ -16379,7 +16369,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="683" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="683" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A683" s="1">
         <v>43862</v>
       </c>
@@ -16399,7 +16389,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="684" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="684" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A684" s="1">
         <v>43891</v>
       </c>
@@ -16419,7 +16409,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="685" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="685" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A685" s="1">
         <v>43922</v>
       </c>
@@ -16439,7 +16429,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="686" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="686" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A686" s="1">
         <v>43952</v>
       </c>
@@ -16459,7 +16449,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="687" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="687" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A687" s="1">
         <v>43983</v>
       </c>
@@ -16479,7 +16469,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="688" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="688" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A688" s="1">
         <v>44013</v>
       </c>
@@ -16499,7 +16489,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="689" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="689" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A689" s="1">
         <v>44044</v>
       </c>
@@ -16519,7 +16509,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="690" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="690" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A690" s="1">
         <v>44075</v>
       </c>
@@ -16539,7 +16529,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="691" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="691" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A691" s="1">
         <v>44105</v>
       </c>
@@ -16559,7 +16549,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="692" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="692" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A692" s="1">
         <v>44136</v>
       </c>
@@ -16579,7 +16569,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="693" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="693" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A693" s="1">
         <v>44166</v>
       </c>
@@ -16599,7 +16589,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="694" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="694" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A694" s="1">
         <v>44197</v>
       </c>
@@ -16619,7 +16609,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="695" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="695" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A695" s="1">
         <v>44228</v>
       </c>
@@ -16639,7 +16629,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="696" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="696" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A696" s="1">
         <v>44256</v>
       </c>
@@ -16659,7 +16649,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="697" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="697" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A697" s="1">
         <v>44287</v>
       </c>
@@ -16679,7 +16669,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="698" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="698" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A698" s="1">
         <v>44317</v>
       </c>
@@ -16699,7 +16689,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="699" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="699" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A699" s="1">
         <v>44348</v>
       </c>
@@ -16719,7 +16709,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="700" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="700" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A700" s="1">
         <v>44378</v>
       </c>
@@ -16739,7 +16729,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="701" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="701" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A701" s="1">
         <v>44409</v>
       </c>
@@ -16759,7 +16749,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="702" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="702" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A702" s="1">
         <v>44440</v>
       </c>
@@ -16779,7 +16769,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="703" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="703" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A703" s="1">
         <v>44470</v>
       </c>
@@ -16799,7 +16789,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="704" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="704" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A704" s="1">
         <v>44501</v>
       </c>
@@ -16819,7 +16809,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="705" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="705" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A705" s="1">
         <v>44531</v>
       </c>
@@ -16839,7 +16829,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="706" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="706" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A706" s="1">
         <v>44562</v>
       </c>
@@ -16859,7 +16849,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="707" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="707" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A707" s="1">
         <v>44593</v>
       </c>
@@ -16879,7 +16869,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="708" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="708" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A708" s="1">
         <v>44621</v>
       </c>
@@ -16899,7 +16889,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="709" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="709" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A709" s="1">
         <v>44652</v>
       </c>
@@ -16919,7 +16909,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="710" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="710" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A710" s="1">
         <v>44682</v>
       </c>
@@ -16939,7 +16929,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="711" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="711" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A711" s="1">
         <v>44713</v>
       </c>
@@ -16959,7 +16949,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="712" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="712" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A712" s="1">
         <v>44743</v>
       </c>
@@ -16979,7 +16969,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="713" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="713" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A713" s="1">
         <v>44774</v>
       </c>
@@ -16999,7 +16989,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="714" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="714" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A714" s="1">
         <v>44805</v>
       </c>
@@ -17019,7 +17009,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="715" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="715" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A715" s="1">
         <v>44835</v>
       </c>
@@ -17039,7 +17029,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="716" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="716" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A716" s="1">
         <v>44866</v>
       </c>
@@ -17059,7 +17049,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="717" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="717" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A717" s="1">
         <v>44896</v>
       </c>
@@ -17079,7 +17069,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="718" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="718" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A718" s="1">
         <v>44927</v>
       </c>
@@ -17099,7 +17089,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="719" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="719" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A719" s="1">
         <v>44958</v>
       </c>
@@ -17119,7 +17109,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="720" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="720" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A720" s="1">
         <v>44986</v>
       </c>
@@ -17139,7 +17129,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="721" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="721" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A721" s="1">
         <v>45017</v>
       </c>
@@ -17159,7 +17149,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="722" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="722" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A722" s="1">
         <v>45047</v>
       </c>
@@ -17179,7 +17169,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="723" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="723" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A723" s="1">
         <v>45078</v>
       </c>
@@ -17199,7 +17189,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="724" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="724" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A724" s="1">
         <v>43647</v>
       </c>
@@ -17219,7 +17209,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="725" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="725" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A725" s="1">
         <v>43678</v>
       </c>
@@ -17239,7 +17229,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="726" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="726" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A726" s="1">
         <v>43709</v>
       </c>
@@ -17259,7 +17249,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="727" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="727" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A727" s="1">
         <v>43739</v>
       </c>
@@ -17279,7 +17269,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="728" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="728" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A728" s="1">
         <v>43770</v>
       </c>
@@ -17299,7 +17289,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="729" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="729" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A729" s="1">
         <v>43800</v>
       </c>
@@ -17319,7 +17309,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="730" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="730" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A730" s="1">
         <v>43831</v>
       </c>
@@ -17339,7 +17329,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="731" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="731" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A731" s="1">
         <v>43862</v>
       </c>
@@ -17359,7 +17349,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="732" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="732" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A732" s="1">
         <v>43891</v>
       </c>
@@ -17379,7 +17369,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="733" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="733" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A733" s="1">
         <v>43922</v>
       </c>
@@ -17396,7 +17386,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="734" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="734" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A734" s="1">
         <v>43952</v>
       </c>
@@ -17413,7 +17403,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="735" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="735" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A735" s="1">
         <v>43983</v>
       </c>
@@ -17430,7 +17420,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="736" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="736" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A736" s="1">
         <v>44013</v>
       </c>
@@ -17447,7 +17437,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="737" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="737" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A737" s="1">
         <v>44044</v>
       </c>
@@ -17464,7 +17454,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="738" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="738" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A738" s="1">
         <v>44075</v>
       </c>
@@ -17484,7 +17474,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="739" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="739" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A739" s="1">
         <v>44105</v>
       </c>
@@ -17504,7 +17494,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="740" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="740" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A740" s="1">
         <v>44136</v>
       </c>
@@ -17524,7 +17514,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="741" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="741" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A741" s="1">
         <v>44166</v>
       </c>
@@ -17544,7 +17534,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="742" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="742" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A742" s="1">
         <v>44197</v>
       </c>
@@ -17564,7 +17554,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="743" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="743" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A743" s="1">
         <v>44228</v>
       </c>
@@ -17584,7 +17574,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="744" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="744" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A744" s="1">
         <v>44256</v>
       </c>
@@ -17604,7 +17594,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="745" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="745" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A745" s="1">
         <v>44287</v>
       </c>
@@ -17624,7 +17614,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="746" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="746" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A746" s="1">
         <v>44317</v>
       </c>
@@ -17644,7 +17634,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="747" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="747" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A747" s="1">
         <v>44348</v>
       </c>
@@ -17664,7 +17654,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="748" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="748" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A748" s="1">
         <v>44378</v>
       </c>
@@ -17684,7 +17674,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="749" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="749" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A749" s="1">
         <v>44409</v>
       </c>
@@ -17704,7 +17694,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="750" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="750" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A750" s="1">
         <v>44440</v>
       </c>
@@ -17724,7 +17714,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="751" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="751" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A751" s="1">
         <v>44470</v>
       </c>
@@ -17744,7 +17734,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="752" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="752" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A752" s="1">
         <v>44501</v>
       </c>
@@ -17764,7 +17754,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="753" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="753" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A753" s="1">
         <v>44531</v>
       </c>
@@ -17784,7 +17774,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="754" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="754" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A754" s="1">
         <v>44562</v>
       </c>
@@ -17804,7 +17794,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="755" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="755" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A755" s="1">
         <v>44593</v>
       </c>
@@ -17824,7 +17814,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="756" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="756" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A756" s="1">
         <v>44621</v>
       </c>
@@ -17844,7 +17834,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="757" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="757" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A757" s="1">
         <v>44652</v>
       </c>
@@ -17864,7 +17854,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="758" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="758" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A758" s="1">
         <v>44682</v>
       </c>
@@ -17884,7 +17874,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="759" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="759" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A759" s="1">
         <v>44713</v>
       </c>
@@ -17904,7 +17894,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="760" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="760" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A760" s="1">
         <v>44743</v>
       </c>
@@ -17924,7 +17914,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="761" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="761" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A761" s="1">
         <v>44774</v>
       </c>
@@ -17944,7 +17934,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="762" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="762" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A762" s="1">
         <v>44805</v>
       </c>
@@ -17964,7 +17954,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="763" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="763" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A763" s="1">
         <v>44835</v>
       </c>
@@ -17984,7 +17974,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="764" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="764" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A764" s="1">
         <v>44866</v>
       </c>
@@ -18004,7 +17994,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="765" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="765" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A765" s="1">
         <v>44896</v>
       </c>
@@ -18024,7 +18014,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="766" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="766" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A766" s="1">
         <v>44927</v>
       </c>
@@ -18044,7 +18034,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="767" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="767" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A767" s="1">
         <v>44958</v>
       </c>
@@ -18064,7 +18054,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="768" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="768" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A768" s="1">
         <v>44986</v>
       </c>
@@ -18084,7 +18074,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="769" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="769" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A769" s="1">
         <v>45017</v>
       </c>
@@ -18104,7 +18094,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="770" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="770" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A770" s="1">
         <v>45047</v>
       </c>
@@ -18124,7 +18114,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="771" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="771" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A771" s="1">
         <v>45078</v>
       </c>
@@ -18144,7 +18134,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="772" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="772" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A772" s="1">
         <v>45108</v>
       </c>
@@ -18164,7 +18154,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="773" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="773" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A773" s="1">
         <v>44927</v>
       </c>
@@ -18184,7 +18174,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="774" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="774" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A774" s="1">
         <v>44958</v>
       </c>
@@ -18204,7 +18194,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="775" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="775" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A775" s="1">
         <v>44986</v>
       </c>
@@ -18224,7 +18214,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="776" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="776" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A776" s="1">
         <v>45017</v>
       </c>
@@ -18244,7 +18234,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="777" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="777" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A777" s="1">
         <v>45047</v>
       </c>
@@ -18264,7 +18254,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="778" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="778" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A778" s="1">
         <v>45078</v>
       </c>
@@ -18284,7 +18274,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="779" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="779" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A779" s="1">
         <v>43739</v>
       </c>
@@ -18304,7 +18294,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="780" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="780" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A780" s="1">
         <v>43770</v>
       </c>
@@ -18324,7 +18314,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="781" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="781" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A781" s="1">
         <v>43800</v>
       </c>
@@ -18344,7 +18334,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="782" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="782" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A782" s="1">
         <v>43831</v>
       </c>
@@ -18364,7 +18354,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="783" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="783" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A783" s="1">
         <v>43862</v>
       </c>
@@ -18384,7 +18374,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="784" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="784" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A784" s="1">
         <v>43891</v>
       </c>
@@ -18404,7 +18394,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="785" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="785" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A785" s="1">
         <v>43922</v>
       </c>
@@ -18424,7 +18414,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="786" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="786" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A786" s="1">
         <v>43952</v>
       </c>
@@ -18444,7 +18434,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="787" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="787" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A787" s="1">
         <v>43983</v>
       </c>
@@ -18464,7 +18454,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="788" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="788" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A788" s="1">
         <v>44013</v>
       </c>
@@ -18484,7 +18474,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="789" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="789" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A789" s="1">
         <v>44044</v>
       </c>
@@ -18504,7 +18494,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="790" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="790" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A790" s="1">
         <v>44075</v>
       </c>
@@ -18524,7 +18514,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="791" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="791" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A791" s="1">
         <v>44105</v>
       </c>
@@ -18544,7 +18534,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="792" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="792" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A792" s="1">
         <v>44136</v>
       </c>
@@ -18564,7 +18554,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="793" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="793" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A793" s="1">
         <v>44166</v>
       </c>
@@ -18584,7 +18574,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="794" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="794" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A794" s="1">
         <v>44197</v>
       </c>
@@ -18604,7 +18594,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="795" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="795" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A795" s="1">
         <v>44228</v>
       </c>
@@ -18624,7 +18614,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="796" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="796" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A796" s="1">
         <v>44256</v>
       </c>
@@ -18644,7 +18634,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="797" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="797" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A797" s="1">
         <v>44287</v>
       </c>
@@ -18664,7 +18654,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="798" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="798" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A798" s="1">
         <v>44317</v>
       </c>
@@ -18684,7 +18674,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="799" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="799" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A799" s="1">
         <v>44348</v>
       </c>
@@ -18704,7 +18694,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="800" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="800" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A800" s="1">
         <v>44378</v>
       </c>
@@ -18724,7 +18714,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="801" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="801" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A801" s="1">
         <v>44409</v>
       </c>
@@ -18744,7 +18734,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="802" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="802" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A802" s="1">
         <v>44440</v>
       </c>
@@ -18764,7 +18754,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="803" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="803" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A803" s="1">
         <v>44470</v>
       </c>
@@ -18784,7 +18774,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="804" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="804" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A804" s="1">
         <v>44501</v>
       </c>
@@ -18804,7 +18794,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="805" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="805" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A805" s="1">
         <v>44531</v>
       </c>
@@ -18824,7 +18814,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="806" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="806" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A806" s="1">
         <v>44562</v>
       </c>
@@ -18844,7 +18834,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="807" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="807" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A807" s="1">
         <v>44593</v>
       </c>
@@ -18864,7 +18854,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="808" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="808" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A808" s="1">
         <v>44621</v>
       </c>
@@ -18884,7 +18874,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="809" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="809" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A809" s="1">
         <v>44652</v>
       </c>
@@ -18904,7 +18894,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="810" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="810" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A810" s="1">
         <v>44682</v>
       </c>
@@ -18924,7 +18914,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="811" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="811" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A811" s="1">
         <v>44713</v>
       </c>
@@ -18944,7 +18934,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="812" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="812" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A812" s="1">
         <v>44743</v>
       </c>
@@ -18964,7 +18954,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="813" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="813" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A813" s="1">
         <v>44774</v>
       </c>
@@ -18984,7 +18974,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="814" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="814" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A814" s="1">
         <v>44805</v>
       </c>
@@ -19004,7 +18994,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="815" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="815" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A815" s="1">
         <v>44835</v>
       </c>
@@ -19024,7 +19014,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="816" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="816" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A816" s="1">
         <v>44866</v>
       </c>
@@ -19044,7 +19034,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="817" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="817" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A817" s="1">
         <v>44896</v>
       </c>
@@ -19064,7 +19054,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="818" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="818" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A818" s="1">
         <v>44927</v>
       </c>
@@ -19084,7 +19074,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="819" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="819" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A819" s="1">
         <v>44958</v>
       </c>
@@ -19104,7 +19094,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="820" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="820" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A820" s="1">
         <v>44986</v>
       </c>
@@ -19124,7 +19114,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="821" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="821" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A821" s="1">
         <v>43405</v>
       </c>
@@ -19144,7 +19134,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="822" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="822" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A822" s="1">
         <v>43435</v>
       </c>
@@ -19164,7 +19154,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="823" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="823" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A823" s="1">
         <v>43466</v>
       </c>
@@ -19184,7 +19174,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="824" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="824" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A824" s="1">
         <v>43497</v>
       </c>
@@ -19204,7 +19194,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="825" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="825" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A825" s="1">
         <v>43525</v>
       </c>
@@ -19224,7 +19214,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="826" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="826" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A826" s="1">
         <v>43556</v>
       </c>
@@ -19244,7 +19234,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="827" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="827" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A827" s="1">
         <v>43586</v>
       </c>
@@ -19264,7 +19254,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="828" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="828" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A828" s="1">
         <v>43617</v>
       </c>
@@ -19284,7 +19274,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="829" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="829" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A829" s="1">
         <v>43647</v>
       </c>
@@ -19304,7 +19294,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="830" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="830" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A830" s="1">
         <v>43678</v>
       </c>
@@ -19324,7 +19314,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="831" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="831" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A831" s="1">
         <v>43709</v>
       </c>
@@ -19344,7 +19334,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="832" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="832" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A832" s="1">
         <v>43739</v>
       </c>
@@ -19364,7 +19354,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="833" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="833" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A833" s="1">
         <v>43770</v>
       </c>
@@ -19384,7 +19374,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="834" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="834" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A834" s="1">
         <v>43800</v>
       </c>
@@ -19404,7 +19394,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="835" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="835" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A835" s="1">
         <v>43831</v>
       </c>
@@ -19424,7 +19414,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="836" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="836" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A836" s="1">
         <v>43862</v>
       </c>
@@ -19444,7 +19434,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="837" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="837" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A837" s="1">
         <v>43891</v>
       </c>
@@ -19464,7 +19454,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="838" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="838" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A838" s="1">
         <v>43922</v>
       </c>
@@ -19484,7 +19474,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="839" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="839" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A839" s="1">
         <v>43952</v>
       </c>
@@ -19504,7 +19494,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="840" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="840" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A840" s="1">
         <v>43983</v>
       </c>
@@ -19524,7 +19514,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="841" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="841" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A841" s="1">
         <v>44013</v>
       </c>
@@ -19544,7 +19534,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="842" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="842" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A842" s="1">
         <v>44044</v>
       </c>
@@ -19564,7 +19554,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="843" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="843" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A843" s="1">
         <v>44075</v>
       </c>
@@ -19584,7 +19574,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="844" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="844" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A844" s="1">
         <v>44105</v>
       </c>
@@ -19604,7 +19594,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="845" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="845" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A845" s="1">
         <v>44136</v>
       </c>
@@ -19624,7 +19614,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="846" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="846" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A846" s="1">
         <v>44166</v>
       </c>
@@ -19644,7 +19634,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="847" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="847" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A847" s="1">
         <v>44197</v>
       </c>
@@ -19664,7 +19654,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="848" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="848" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A848" s="1">
         <v>44228</v>
       </c>
@@ -19684,7 +19674,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="849" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="849" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A849" s="1">
         <v>44256</v>
       </c>
@@ -19704,7 +19694,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="850" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="850" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A850" s="1">
         <v>44287</v>
       </c>
@@ -19724,7 +19714,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="851" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="851" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A851" s="1">
         <v>44317</v>
       </c>
@@ -19744,7 +19734,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="852" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="852" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A852" s="1">
         <v>44348</v>
       </c>
@@ -19764,7 +19754,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="853" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="853" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A853" s="1">
         <v>44378</v>
       </c>
@@ -19784,7 +19774,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="854" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="854" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A854" s="1">
         <v>44409</v>
       </c>
@@ -19804,7 +19794,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="855" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="855" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A855" s="1">
         <v>44440</v>
       </c>
@@ -19824,7 +19814,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="856" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="856" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A856" s="1">
         <v>44470</v>
       </c>
@@ -19844,7 +19834,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="857" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="857" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A857" s="1">
         <v>44501</v>
       </c>
@@ -19864,7 +19854,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="858" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="858" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A858" s="1">
         <v>44531</v>
       </c>
@@ -19884,7 +19874,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="859" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="859" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A859" s="1">
         <v>44562</v>
       </c>
@@ -19904,7 +19894,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="860" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="860" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A860" s="1">
         <v>44593</v>
       </c>
@@ -19924,7 +19914,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="861" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="861" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A861" s="1">
         <v>44621</v>
       </c>
@@ -19944,7 +19934,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="862" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="862" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A862" s="1">
         <v>44652</v>
       </c>
@@ -19964,7 +19954,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="863" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="863" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A863" s="1">
         <v>44682</v>
       </c>
@@ -19984,7 +19974,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="864" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="864" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A864" s="1">
         <v>44713</v>
       </c>
@@ -20004,7 +19994,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="865" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="865" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A865" s="1">
         <v>44743</v>
       </c>
@@ -20024,7 +20014,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="866" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="866" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A866" s="1">
         <v>44774</v>
       </c>
@@ -20044,7 +20034,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="867" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="867" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A867" s="1">
         <v>44805</v>
       </c>
@@ -20064,7 +20054,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="868" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="868" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A868" s="1">
         <v>44835</v>
       </c>
@@ -20084,7 +20074,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="869" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="869" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A869" s="1">
         <v>44866</v>
       </c>
@@ -20104,7 +20094,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="870" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="870" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A870" s="1">
         <v>44896</v>
       </c>
@@ -20124,7 +20114,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="871" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="871" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A871" s="1">
         <v>44927</v>
       </c>
@@ -20144,7 +20134,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="872" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="872" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A872" s="1">
         <v>44958</v>
       </c>
@@ -20164,7 +20154,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="873" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="873" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A873" s="1">
         <v>44986</v>
       </c>
@@ -20184,7 +20174,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="874" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="874" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A874" s="1">
         <v>45017</v>
       </c>
@@ -20204,7 +20194,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="875" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="875" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A875" s="1">
         <v>45047</v>
       </c>
@@ -20224,7 +20214,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="876" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="876" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A876" s="1">
         <v>45078</v>
       </c>
@@ -20244,7 +20234,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="877" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="877" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A877" s="1">
         <v>43405</v>
       </c>
@@ -20264,7 +20254,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="878" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="878" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A878" s="1">
         <v>43435</v>
       </c>
@@ -20284,7 +20274,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="879" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="879" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A879" s="1">
         <v>43466</v>
       </c>
@@ -20304,7 +20294,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="880" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="880" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A880" s="1">
         <v>43497</v>
       </c>
@@ -20324,7 +20314,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="881" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="881" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A881" s="1">
         <v>43525</v>
       </c>
@@ -20344,7 +20334,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="882" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="882" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A882" s="1">
         <v>43556</v>
       </c>
@@ -20364,7 +20354,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="883" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="883" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A883" s="1">
         <v>43586</v>
       </c>
@@ -20384,7 +20374,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="884" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="884" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A884" s="1">
         <v>43617</v>
       </c>
@@ -20404,7 +20394,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="885" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="885" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A885" s="1">
         <v>43647</v>
       </c>
@@ -20424,7 +20414,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="886" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="886" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A886" s="1">
         <v>43678</v>
       </c>
@@ -20444,7 +20434,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="887" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="887" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A887" s="1">
         <v>43709</v>
       </c>
@@ -20464,7 +20454,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="888" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="888" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A888" s="1">
         <v>43739</v>
       </c>
@@ -20484,7 +20474,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="889" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="889" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A889" s="1">
         <v>43770</v>
       </c>
@@ -20504,7 +20494,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="890" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="890" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A890" s="1">
         <v>43800</v>
       </c>
@@ -20524,7 +20514,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="891" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="891" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A891" s="1">
         <v>43831</v>
       </c>
@@ -20544,7 +20534,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="892" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="892" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A892" s="1">
         <v>43862</v>
       </c>
@@ -20564,7 +20554,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="893" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="893" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A893" s="1">
         <v>43891</v>
       </c>
@@ -20584,7 +20574,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="894" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="894" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A894" s="1">
         <v>43922</v>
       </c>
@@ -20604,7 +20594,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="895" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="895" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A895" s="1">
         <v>43952</v>
       </c>
@@ -20624,7 +20614,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="896" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="896" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A896" s="1">
         <v>43983</v>
       </c>
@@ -20644,7 +20634,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="897" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="897" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A897" s="1">
         <v>44013</v>
       </c>
@@ -20664,7 +20654,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="898" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="898" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A898" s="1">
         <v>44044</v>
       </c>
@@ -20684,7 +20674,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="899" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="899" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A899" s="1">
         <v>44075</v>
       </c>
@@ -20704,7 +20694,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="900" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="900" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A900" s="1">
         <v>44105</v>
       </c>
@@ -20724,7 +20714,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="901" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="901" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A901" s="1">
         <v>44136</v>
       </c>
@@ -20744,7 +20734,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="902" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="902" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A902" s="1">
         <v>44166</v>
       </c>
@@ -20764,7 +20754,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="903" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="903" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A903" s="1">
         <v>44197</v>
       </c>
@@ -20784,7 +20774,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="904" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="904" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A904" s="1">
         <v>44228</v>
       </c>
@@ -20804,7 +20794,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="905" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="905" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A905" s="1">
         <v>44256</v>
       </c>
@@ -20824,7 +20814,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="906" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="906" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A906" s="1">
         <v>44287</v>
       </c>
@@ -20844,7 +20834,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="907" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="907" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A907" s="1">
         <v>44317</v>
       </c>
@@ -20864,7 +20854,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="908" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="908" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A908" s="1">
         <v>44348</v>
       </c>
@@ -20884,7 +20874,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="909" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="909" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A909" s="1">
         <v>44378</v>
       </c>
@@ -20904,7 +20894,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="910" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="910" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A910" s="1">
         <v>44409</v>
       </c>
@@ -20924,7 +20914,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="911" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="911" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A911" s="1">
         <v>44440</v>
       </c>
@@ -20944,7 +20934,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="912" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="912" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A912" s="1">
         <v>44470</v>
       </c>
@@ -20964,7 +20954,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="913" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="913" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A913" s="1">
         <v>44501</v>
       </c>
@@ -20984,7 +20974,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="914" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="914" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A914" s="1">
         <v>44531</v>
       </c>
@@ -21004,7 +20994,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="915" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="915" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A915" s="1">
         <v>44562</v>
       </c>
@@ -21024,7 +21014,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="916" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="916" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A916" s="1">
         <v>44593</v>
       </c>
@@ -21044,7 +21034,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="917" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="917" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A917" s="1">
         <v>44621</v>
       </c>
@@ -21064,7 +21054,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="918" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="918" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A918" s="1">
         <v>44652</v>
       </c>
@@ -21084,7 +21074,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="919" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="919" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A919" s="1">
         <v>44682</v>
       </c>
@@ -21104,7 +21094,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="920" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="920" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A920" s="1">
         <v>44713</v>
       </c>
@@ -21124,7 +21114,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="921" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="921" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A921" s="1">
         <v>44743</v>
       </c>
@@ -21144,7 +21134,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="922" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="922" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A922" s="1">
         <v>44774</v>
       </c>
@@ -21164,7 +21154,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="923" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="923" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A923" s="1">
         <v>44805</v>
       </c>
@@ -21184,7 +21174,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="924" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="924" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A924" s="1">
         <v>44835</v>
       </c>
@@ -21204,7 +21194,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="925" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="925" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A925" s="1">
         <v>44866</v>
       </c>
@@ -21224,7 +21214,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="926" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="926" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A926" s="1">
         <v>44896</v>
       </c>
@@ -21244,7 +21234,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="927" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="927" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A927" s="1">
         <v>44927</v>
       </c>
@@ -21264,7 +21254,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="928" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="928" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A928" s="1">
         <v>44958</v>
       </c>
@@ -21284,7 +21274,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="929" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="929" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A929" s="1">
         <v>44986</v>
       </c>
@@ -21304,7 +21294,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="930" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="930" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A930" s="1">
         <v>45017</v>
       </c>
@@ -21324,7 +21314,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="931" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="931" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A931" s="1">
         <v>45047</v>
       </c>
@@ -21344,7 +21334,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="932" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="932" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A932" s="1">
         <v>45078</v>
       </c>
@@ -21364,7 +21354,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="933" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="933" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A933" s="1">
         <v>44440</v>
       </c>
@@ -21384,7 +21374,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="934" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="934" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A934" s="1">
         <v>44470</v>
       </c>
@@ -21404,7 +21394,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="935" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="935" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A935" s="1">
         <v>44501</v>
       </c>
@@ -21424,7 +21414,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="936" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="936" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A936" s="1">
         <v>44531</v>
       </c>
@@ -21444,7 +21434,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="937" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="937" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A937" s="1">
         <v>44562</v>
       </c>
@@ -21464,7 +21454,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="938" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="938" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A938" s="1">
         <v>44593</v>
       </c>
@@ -21484,7 +21474,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="939" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="939" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A939" s="1">
         <v>44621</v>
       </c>
@@ -21504,7 +21494,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="940" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="940" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A940" s="1">
         <v>44652</v>
       </c>
@@ -21524,7 +21514,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="941" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="941" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A941" s="1">
         <v>44682</v>
       </c>
@@ -21544,7 +21534,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="942" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="942" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A942" s="1">
         <v>44713</v>
       </c>
@@ -21564,7 +21554,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="943" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="943" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A943" s="1">
         <v>44743</v>
       </c>
@@ -21584,7 +21574,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="944" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="944" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A944" s="1">
         <v>44774</v>
       </c>
@@ -21604,7 +21594,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="945" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="945" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A945" s="1">
         <v>44805</v>
       </c>
@@ -21624,7 +21614,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="946" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="946" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A946" s="1">
         <v>44835</v>
       </c>
@@ -21644,7 +21634,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="947" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="947" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A947" s="1">
         <v>44866</v>
       </c>
@@ -21664,7 +21654,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="948" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="948" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A948" s="1">
         <v>44896</v>
       </c>
@@ -21684,7 +21674,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="949" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="949" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A949" s="1">
         <v>44927</v>
       </c>
@@ -21704,7 +21694,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="950" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="950" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A950" s="1">
         <v>44958</v>
       </c>
@@ -21724,7 +21714,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="951" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="951" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A951" s="1">
         <v>44986</v>
       </c>
@@ -21744,7 +21734,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="952" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="952" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A952" s="1">
         <v>45017</v>
       </c>
@@ -21764,7 +21754,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="953" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="953" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A953" s="1">
         <v>45047</v>
       </c>
@@ -21784,7 +21774,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="954" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="954" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A954" s="1">
         <v>45078</v>
       </c>
@@ -21804,7 +21794,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="955" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="955" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A955" s="1">
         <v>44136</v>
       </c>
@@ -21824,7 +21814,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="956" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="956" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A956" s="1">
         <v>44166</v>
       </c>
@@ -21844,7 +21834,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="957" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="957" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A957" s="1">
         <v>44197</v>
       </c>
@@ -21864,7 +21854,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="958" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="958" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A958" s="1">
         <v>44228</v>
       </c>
@@ -21884,7 +21874,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="959" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="959" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A959" s="1">
         <v>44256</v>
       </c>
@@ -21904,7 +21894,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="960" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="960" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A960" s="1">
         <v>44287</v>
       </c>
@@ -21924,7 +21914,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="961" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="961" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A961" s="1">
         <v>44317</v>
       </c>
@@ -21944,7 +21934,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="962" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="962" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A962" s="1">
         <v>44348</v>
       </c>
@@ -21964,7 +21954,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="963" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="963" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A963" s="1">
         <v>44378</v>
       </c>
@@ -21984,7 +21974,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="964" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="964" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A964" s="1">
         <v>44409</v>
       </c>
@@ -22004,7 +21994,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="965" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="965" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A965" s="1">
         <v>44440</v>
       </c>
@@ -22024,7 +22014,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="966" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="966" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A966" s="1">
         <v>44470</v>
       </c>
@@ -22044,7 +22034,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="967" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="967" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A967" s="1">
         <v>44501</v>
       </c>
@@ -22064,7 +22054,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="968" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="968" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A968" s="1">
         <v>44531</v>
       </c>
@@ -22084,7 +22074,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="969" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="969" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A969" s="1">
         <v>44562</v>
       </c>
@@ -22104,7 +22094,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="970" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="970" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A970" s="1">
         <v>44593</v>
       </c>
@@ -22124,7 +22114,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="971" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="971" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A971" s="1">
         <v>44621</v>
       </c>
@@ -22144,7 +22134,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="972" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="972" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A972" s="1">
         <v>44652</v>
       </c>
@@ -22164,7 +22154,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="973" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="973" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A973" s="1">
         <v>44682</v>
       </c>
@@ -22184,7 +22174,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="974" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="974" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A974" s="1">
         <v>44713</v>
       </c>
@@ -22204,7 +22194,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="975" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="975" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A975" s="1">
         <v>44743</v>
       </c>
@@ -22224,7 +22214,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="976" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="976" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A976" s="1">
         <v>44774</v>
       </c>
@@ -22244,7 +22234,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="977" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="977" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A977" s="1">
         <v>44805</v>
       </c>
@@ -22264,7 +22254,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="978" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="978" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A978" s="1">
         <v>44835</v>
       </c>
@@ -22284,7 +22274,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="979" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="979" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A979" s="1">
         <v>44866</v>
       </c>
@@ -22304,7 +22294,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="980" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="980" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A980" s="1">
         <v>44896</v>
       </c>
@@ -22324,7 +22314,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="981" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="981" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A981" s="1">
         <v>44927</v>
       </c>
@@ -22344,7 +22334,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="982" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="982" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A982" s="1">
         <v>44958</v>
       </c>
@@ -22364,7 +22354,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="983" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="983" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A983" s="1">
         <v>44986</v>
       </c>
@@ -22384,7 +22374,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="984" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="984" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A984" s="1">
         <v>45017</v>
       </c>
@@ -22404,7 +22394,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="985" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="985" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A985" s="1">
         <v>45047</v>
       </c>
@@ -22424,7 +22414,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="986" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="986" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A986" s="1">
         <v>45078</v>
       </c>
@@ -22444,7 +22434,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="987" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="987" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A987" s="1">
         <v>45108</v>
       </c>
@@ -22464,7 +22454,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="988" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="988" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A988" s="1">
         <v>44197</v>
       </c>
@@ -22484,7 +22474,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="989" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="989" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A989" s="1">
         <v>44228</v>
       </c>
@@ -22504,7 +22494,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="990" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="990" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A990" s="1">
         <v>44256</v>
       </c>
@@ -22524,7 +22514,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="991" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="991" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A991" s="1">
         <v>44287</v>
       </c>
@@ -22544,7 +22534,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="992" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="992" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A992" s="1">
         <v>44317</v>
       </c>
@@ -22564,7 +22554,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="993" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="993" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A993" s="1">
         <v>44348</v>
       </c>
@@ -22584,7 +22574,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="994" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="994" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A994" s="1">
         <v>44378</v>
       </c>
@@ -22604,7 +22594,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="995" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="995" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A995" s="1">
         <v>44409</v>
       </c>
@@ -22624,7 +22614,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="996" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="996" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A996" s="1">
         <v>44440</v>
       </c>
@@ -22644,7 +22634,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="997" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="997" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A997" s="1">
         <v>44470</v>
       </c>
@@ -22664,7 +22654,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="998" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="998" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A998" s="1">
         <v>44501</v>
       </c>
@@ -22684,7 +22674,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="999" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="999" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A999" s="1">
         <v>44531</v>
       </c>
@@ -22704,7 +22694,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="1000" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1000" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1000" s="1">
         <v>44562</v>
       </c>
@@ -22724,7 +22714,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="1001" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1001" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1001" s="1">
         <v>44593</v>
       </c>
@@ -22744,7 +22734,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="1002" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1002" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1002" s="1">
         <v>44621</v>
       </c>
@@ -22764,7 +22754,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="1003" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1003" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1003" s="1">
         <v>44652</v>
       </c>
@@ -22784,7 +22774,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="1004" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1004" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1004" s="1">
         <v>44682</v>
       </c>
@@ -22804,7 +22794,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="1005" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1005" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1005" s="1">
         <v>44713</v>
       </c>
@@ -22824,7 +22814,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="1006" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1006" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1006" s="1">
         <v>44743</v>
       </c>
@@ -22844,7 +22834,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="1007" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1007" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1007" s="1">
         <v>44774</v>
       </c>
@@ -22864,7 +22854,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="1008" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1008" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1008" s="1">
         <v>44805</v>
       </c>
@@ -22884,7 +22874,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="1009" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1009" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1009" s="1">
         <v>44835</v>
       </c>
@@ -22904,7 +22894,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="1010" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1010" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1010" s="1">
         <v>44866</v>
       </c>
@@ -22924,7 +22914,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="1011" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1011" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1011" s="1">
         <v>44896</v>
       </c>
@@ -22944,7 +22934,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="1012" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1012" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1012" s="1">
         <v>44927</v>
       </c>
@@ -22964,7 +22954,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="1013" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1013" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1013" s="1">
         <v>44958</v>
       </c>
@@ -22984,7 +22974,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="1014" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1014" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1014" s="1">
         <v>44986</v>
       </c>
@@ -23004,7 +22994,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="1015" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1015" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1015" s="1">
         <v>45017</v>
       </c>
@@ -23024,7 +23014,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="1016" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1016" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1016" s="1">
         <v>45047</v>
       </c>
@@ -23044,7 +23034,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="1017" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1017" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1017" s="1">
         <v>45078</v>
       </c>
@@ -23064,7 +23054,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="1018" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1018" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1018" s="1">
         <v>43313</v>
       </c>
@@ -23084,7 +23074,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="1019" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1019" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1019" s="1">
         <v>43344</v>
       </c>
@@ -23104,7 +23094,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="1020" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1020" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1020" s="1">
         <v>43374</v>
       </c>
@@ -23124,7 +23114,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="1021" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1021" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1021" s="1">
         <v>43405</v>
       </c>
@@ -23144,7 +23134,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="1022" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1022" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1022" s="1">
         <v>43435</v>
       </c>
@@ -23164,7 +23154,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="1023" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1023" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1023" s="1">
         <v>43466</v>
       </c>
@@ -23184,7 +23174,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="1024" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1024" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1024" s="1">
         <v>43497</v>
       </c>
@@ -23204,7 +23194,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="1025" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1025" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1025" s="1">
         <v>43525</v>
       </c>
@@ -23224,7 +23214,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="1026" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1026" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1026" s="1">
         <v>43556</v>
       </c>
@@ -23244,7 +23234,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="1027" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1027" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1027" s="1">
         <v>43586</v>
       </c>
@@ -23264,7 +23254,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="1028" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1028" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1028" s="1">
         <v>43617</v>
       </c>
@@ -23284,7 +23274,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="1029" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1029" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1029" s="1">
         <v>43647</v>
       </c>
@@ -23304,7 +23294,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="1030" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1030" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1030" s="1">
         <v>43678</v>
       </c>
@@ -23324,7 +23314,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="1031" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1031" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1031" s="1">
         <v>43709</v>
       </c>
@@ -23344,7 +23334,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="1032" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1032" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1032" s="1">
         <v>43739</v>
       </c>
@@ -23364,7 +23354,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="1033" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1033" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1033" s="1">
         <v>43770</v>
       </c>
@@ -23384,7 +23374,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="1034" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1034" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1034" s="1">
         <v>43800</v>
       </c>
@@ -23404,7 +23394,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="1035" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1035" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1035" s="1">
         <v>43831</v>
       </c>
@@ -23424,7 +23414,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="1036" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1036" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1036" s="1">
         <v>43862</v>
       </c>
@@ -23444,7 +23434,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="1037" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1037" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1037" s="1">
         <v>43891</v>
       </c>
@@ -23464,7 +23454,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="1038" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1038" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1038" s="1">
         <v>43922</v>
       </c>
@@ -23484,7 +23474,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="1039" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1039" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1039" s="1">
         <v>43952</v>
       </c>
@@ -23504,7 +23494,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="1040" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1040" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1040" s="1">
         <v>43983</v>
       </c>
@@ -23524,7 +23514,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="1041" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1041" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1041" s="1">
         <v>44013</v>
       </c>
@@ -23544,7 +23534,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="1042" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1042" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1042" s="1">
         <v>44044</v>
       </c>
@@ -23564,7 +23554,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="1043" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1043" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1043" s="1">
         <v>44075</v>
       </c>
@@ -23584,7 +23574,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="1044" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1044" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1044" s="1">
         <v>44105</v>
       </c>
@@ -23604,7 +23594,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="1045" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1045" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1045" s="1">
         <v>44136</v>
       </c>
@@ -23624,7 +23614,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="1046" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1046" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1046" s="1">
         <v>44166</v>
       </c>
@@ -23644,7 +23634,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="1047" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1047" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1047" s="1">
         <v>44197</v>
       </c>
@@ -23664,7 +23654,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="1048" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1048" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1048" s="1">
         <v>44228</v>
       </c>
@@ -23684,7 +23674,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="1049" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1049" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1049" s="1">
         <v>44256</v>
       </c>
@@ -23704,7 +23694,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="1050" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1050" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1050" s="1">
         <v>44287</v>
       </c>
@@ -23724,7 +23714,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="1051" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1051" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1051" s="1">
         <v>44317</v>
       </c>
@@ -23744,7 +23734,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="1052" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1052" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1052" s="1">
         <v>44348</v>
       </c>
@@ -23764,7 +23754,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="1053" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1053" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1053" s="1">
         <v>44378</v>
       </c>
@@ -23784,7 +23774,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="1054" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1054" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1054" s="1">
         <v>44409</v>
       </c>
@@ -23804,7 +23794,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="1055" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1055" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1055" s="1">
         <v>44440</v>
       </c>
@@ -23824,7 +23814,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="1056" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1056" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1056" s="1">
         <v>44470</v>
       </c>
@@ -23844,7 +23834,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="1057" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1057" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1057" s="1">
         <v>44501</v>
       </c>
@@ -23864,7 +23854,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="1058" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1058" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1058" s="1">
         <v>44531</v>
       </c>
@@ -23884,7 +23874,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="1059" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1059" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1059" s="1">
         <v>44562</v>
       </c>
@@ -23904,7 +23894,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="1060" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1060" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1060" s="1">
         <v>44593</v>
       </c>
@@ -23924,7 +23914,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="1061" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1061" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1061" s="1">
         <v>44621</v>
       </c>
@@ -23944,7 +23934,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="1062" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1062" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1062" s="1">
         <v>44652</v>
       </c>
@@ -23964,7 +23954,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="1063" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1063" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1063" s="1">
         <v>44682</v>
       </c>
@@ -23984,7 +23974,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="1064" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1064" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1064" s="1">
         <v>44713</v>
       </c>
@@ -24004,7 +23994,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="1065" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1065" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1065" s="1">
         <v>44743</v>
       </c>
@@ -24024,7 +24014,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="1066" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1066" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1066" s="1">
         <v>44774</v>
       </c>
@@ -24044,7 +24034,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="1067" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1067" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1067" s="1">
         <v>44805</v>
       </c>
@@ -24064,7 +24054,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="1068" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1068" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1068" s="1">
         <v>44835</v>
       </c>
@@ -24084,7 +24074,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="1069" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1069" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1069" s="1">
         <v>44866</v>
       </c>
@@ -24104,7 +24094,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="1070" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1070" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1070" s="1">
         <v>44896</v>
       </c>
@@ -24124,7 +24114,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="1071" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1071" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1071" s="1">
         <v>44927</v>
       </c>
@@ -24144,7 +24134,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="1072" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1072" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1072" s="1">
         <v>44958</v>
       </c>
@@ -24164,7 +24154,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="1073" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1073" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1073" s="1">
         <v>44986</v>
       </c>
@@ -24184,7 +24174,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="1074" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1074" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1074" s="1">
         <v>45017</v>
       </c>
@@ -24204,7 +24194,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="1075" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1075" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1075" s="1">
         <v>45047</v>
       </c>
@@ -24224,7 +24214,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="1076" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1076" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1076" s="1">
         <v>45078</v>
       </c>
@@ -24244,7 +24234,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="1077" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1077" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1077" s="1">
         <v>44440</v>
       </c>
@@ -24264,7 +24254,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="1078" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1078" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1078" s="1">
         <v>44470</v>
       </c>
@@ -24284,7 +24274,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="1079" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1079" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1079" s="1">
         <v>44501</v>
       </c>
@@ -24304,7 +24294,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="1080" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1080" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1080" s="1">
         <v>44531</v>
       </c>
@@ -24324,7 +24314,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="1081" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1081" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1081" s="1">
         <v>44562</v>
       </c>
@@ -24344,7 +24334,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="1082" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1082" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1082" s="1">
         <v>44593</v>
       </c>
@@ -24364,7 +24354,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="1083" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1083" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1083" s="1">
         <v>44621</v>
       </c>
@@ -24384,7 +24374,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="1084" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1084" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1084" s="1">
         <v>44652</v>
       </c>
@@ -24404,7 +24394,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="1085" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1085" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1085" s="1">
         <v>44682</v>
       </c>
@@ -24424,7 +24414,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="1086" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1086" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1086" s="1">
         <v>44713</v>
       </c>
@@ -24444,7 +24434,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="1087" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1087" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1087" s="1">
         <v>44743</v>
       </c>
@@ -24464,7 +24454,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="1088" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1088" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1088" s="1">
         <v>44774</v>
       </c>
@@ -24484,7 +24474,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="1089" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1089" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1089" s="1">
         <v>44805</v>
       </c>
@@ -24504,7 +24494,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="1090" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1090" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1090" s="1">
         <v>44835</v>
       </c>
@@ -24524,7 +24514,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="1091" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1091" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1091" s="1">
         <v>44866</v>
       </c>
@@ -24544,7 +24534,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="1092" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1092" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1092" s="1">
         <v>44896</v>
       </c>
@@ -24564,7 +24554,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="1093" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1093" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1093" s="1">
         <v>44927</v>
       </c>
@@ -24584,7 +24574,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="1094" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1094" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1094" s="1">
         <v>44958</v>
       </c>
@@ -24604,7 +24594,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="1095" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1095" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1095" s="1">
         <v>44986</v>
       </c>
@@ -24624,7 +24614,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="1096" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1096" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1096" s="1">
         <v>45017</v>
       </c>
@@ -24644,7 +24634,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="1097" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1097" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1097" s="1">
         <v>45047</v>
       </c>
@@ -24664,7 +24654,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="1098" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1098" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1098" s="1">
         <v>45078</v>
       </c>
@@ -24684,7 +24674,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="1099" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
+    <row r="1099" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F1099" t="s">
         <v>239</v>
       </c>
